--- a/src/main/resources/matrix-syntax.xlsx
+++ b/src/main/resources/matrix-syntax.xlsx
@@ -1264,11 +1264,11 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="100" workbookViewId="0">
       <selection activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="4.75"/>
     <col customWidth="1" min="2" max="2" width="13.880000000000001"/>
@@ -25593,7 +25593,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="65" ht="15">
+    <row r="65" ht="14.25">
       <c r="A65" s="1">
         <v>263</v>
       </c>
@@ -25973,7 +25973,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="66" ht="15">
+    <row r="66" ht="14.25">
       <c r="A66" s="1">
         <v>264</v>
       </c>
@@ -26353,7 +26353,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="67" ht="15">
+    <row r="67" ht="14.25">
       <c r="A67" s="1">
         <v>265</v>
       </c>
@@ -26733,7 +26733,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="68" ht="15">
+    <row r="68" ht="14.25">
       <c r="A68" s="1">
         <v>266</v>
       </c>
@@ -27113,7 +27113,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="69" ht="15">
+    <row r="69" ht="14.25">
       <c r="A69" s="1">
         <v>267</v>
       </c>
@@ -27493,7 +27493,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="70" ht="15">
+    <row r="70" ht="14.25">
       <c r="A70" s="1">
         <v>268</v>
       </c>
@@ -27873,7 +27873,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="71" ht="15">
+    <row r="71" ht="14.25">
       <c r="A71" s="1">
         <v>269</v>
       </c>
@@ -28253,7 +28253,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="72" ht="15">
+    <row r="72" ht="14.25">
       <c r="A72" s="1">
         <v>270</v>
       </c>
@@ -28633,7 +28633,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="73" ht="15">
+    <row r="73" ht="14.25">
       <c r="A73" s="1">
         <v>271</v>
       </c>
@@ -29013,7 +29013,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="74" ht="15">
+    <row r="74" ht="14.25">
       <c r="A74" s="1">
         <v>272</v>
       </c>
@@ -29393,7 +29393,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="75" ht="15">
+    <row r="75" ht="14.25">
       <c r="A75" s="1">
         <v>273</v>
       </c>
@@ -29773,7 +29773,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="76" ht="15">
+    <row r="76" ht="14.25">
       <c r="A76" s="1">
         <v>274</v>
       </c>
@@ -30153,7 +30153,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="77" ht="15">
+    <row r="77" ht="14.25">
       <c r="A77" s="1">
         <v>275</v>
       </c>
@@ -30533,7 +30533,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" ht="15">
+    <row r="78" ht="14.25">
       <c r="A78" s="1">
         <v>276</v>
       </c>
@@ -30913,7 +30913,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="79" ht="15">
+    <row r="79" ht="14.25">
       <c r="A79" s="1">
         <v>277</v>
       </c>
@@ -31293,7 +31293,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="80" ht="15">
+    <row r="80" ht="14.25">
       <c r="A80" s="1">
         <v>278</v>
       </c>
@@ -31673,7 +31673,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="81" ht="15">
+    <row r="81" ht="14.25">
       <c r="A81" s="1">
         <v>279</v>
       </c>
@@ -32053,7 +32053,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="82" ht="15">
+    <row r="82" ht="14.25">
       <c r="A82" s="1">
         <v>280</v>
       </c>
@@ -32433,7 +32433,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="83" ht="15">
+    <row r="83" ht="14.25">
       <c r="A83" s="1">
         <v>281</v>
       </c>
@@ -32813,7 +32813,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="84" ht="15">
+    <row r="84" ht="14.25">
       <c r="A84" s="1">
         <v>282</v>
       </c>
@@ -33193,7 +33193,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="85" ht="15">
+    <row r="85" ht="14.25">
       <c r="A85" s="1">
         <v>283</v>
       </c>
@@ -33573,7 +33573,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="86" ht="15">
+    <row r="86" ht="14.25">
       <c r="A86" s="1">
         <v>284</v>
       </c>
@@ -33953,7 +33953,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="87" ht="15">
+    <row r="87" ht="14.25">
       <c r="A87" s="1">
         <v>285</v>
       </c>
@@ -33979,7 +33979,7 @@
         <v>523</v>
       </c>
       <c r="I87" s="3">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J87" s="3">
         <v>523</v>
@@ -34333,7 +34333,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="88" ht="15">
+    <row r="88" ht="14.25">
       <c r="A88" s="1">
         <v>286</v>
       </c>
@@ -34713,7 +34713,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="89" ht="15">
+    <row r="89" ht="14.25">
       <c r="A89" s="1">
         <v>287</v>
       </c>
@@ -35093,7 +35093,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="90" ht="15">
+    <row r="90" ht="14.25">
       <c r="A90" s="1">
         <v>288</v>
       </c>
@@ -35473,7 +35473,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="91" ht="15">
+    <row r="91" ht="14.25">
       <c r="A91" s="1">
         <v>289</v>
       </c>
@@ -35853,7 +35853,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="92" ht="15">
+    <row r="92" ht="14.25">
       <c r="A92" s="1">
         <v>290</v>
       </c>
@@ -36233,7 +36233,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="93" ht="15">
+    <row r="93" ht="14.25">
       <c r="A93" s="1">
         <v>291</v>
       </c>
@@ -36613,7 +36613,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="94" ht="15">
+    <row r="94" ht="14.25">
       <c r="A94" s="1">
         <v>292</v>
       </c>

--- a/src/main/resources/matrix-syntax.xlsx
+++ b/src/main/resources/matrix-syntax.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView windowWidth="19815" windowHeight="7755" tabRatio="322"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>+</t>
   </si>
@@ -27,7 +28,7 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">- -</t>
+    <t>- -</t>
   </si>
   <si>
     <t>-=</t>
@@ -54,7 +55,7 @@
     <t>^</t>
   </si>
   <si>
-    <t xml:space="preserve">^ =</t>
+    <t>^ =</t>
   </si>
   <si>
     <t>,</t>
@@ -99,10 +100,10 @@
     <t>&lt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; &lt;</t>
+    <t>&lt; &lt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; &lt; =</t>
+    <t>&lt; &lt; =</t>
   </si>
   <si>
     <t>&lt;=</t>
@@ -111,16 +112,16 @@
     <t>&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; &gt;</t>
+    <t>&gt; &gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; &gt; &gt;</t>
+    <t>&gt; &gt; &gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; &gt; &gt; =</t>
+    <t>&gt; &gt; &gt; =</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; &gt; =</t>
+    <t>&gt; &gt; =</t>
   </si>
   <si>
     <t>&gt;=</t>
@@ -129,13 +130,13 @@
     <t>=</t>
   </si>
   <si>
-    <t xml:space="preserve">"= =”</t>
+    <t>"= =”</t>
   </si>
   <si>
-    <t xml:space="preserve">"= = =”</t>
+    <t>"= = =”</t>
   </si>
   <si>
-    <t xml:space="preserve">"= &gt;”</t>
+    <t>"= &gt;”</t>
   </si>
   <si>
     <t>!</t>
@@ -177,10 +178,13 @@
     <t>numerica</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal jaja</t>
+    <t>decimal jaja</t>
   </si>
   <si>
-    <t xml:space="preserve">real elev</t>
+    <t>real elev</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>id</t>
@@ -669,33 +673,180 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
-      <color rgb="FF9C0006"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,16 +854,193 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -735,29 +1063,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="2" fillId="3" borderId="1" numFmtId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
+    <cellStyle name="Coma" xfId="6" builtinId="3"/>
+    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21"/>
+    <cellStyle name="Nota" xfId="11" builtinId="10"/>
+    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
+    <cellStyle name="Título" xfId="14" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
+    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
+    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
+    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
+    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
+    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
+    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
+    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
+    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
+    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -767,291 +1408,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1258,26 +1616,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:DW294"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="100" workbookViewId="0">
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="DV1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="EB89" sqref="EB89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.75"/>
-    <col customWidth="1" min="2" max="2" width="13.880000000000001"/>
-    <col customWidth="1" min="3" max="80" width="6.8799999999999999"/>
-    <col customWidth="1" min="81" max="81" width="7"/>
-    <col customWidth="1" min="82" max="126" width="6.8799999999999999"/>
+    <col min="1" max="1" width="4.75238095238095" customWidth="1"/>
+    <col min="2" max="2" width="13.8761904761905" customWidth="1"/>
+    <col min="3" max="81" width="6.87619047619048" customWidth="1"/>
+    <col min="82" max="82" width="7" customWidth="1"/>
+    <col min="83" max="127" width="6.87619047619048" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:127">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -1652,13 +2010,16 @@
       <c r="DV1" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="DW1" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="2" ht="15">
+    <row r="2" ht="14.25" spans="1:127">
       <c r="A2" s="1">
         <v>200</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3">
         <v>504</v>
@@ -1865,10 +2226,10 @@
         <v>504</v>
       </c>
       <c r="BS2" s="3">
+        <v>504</v>
+      </c>
+      <c r="BT2" s="3">
         <v>0</v>
-      </c>
-      <c r="BT2" s="3">
-        <v>504</v>
       </c>
       <c r="BU2" s="3">
         <v>504</v>
@@ -1919,13 +2280,13 @@
         <v>504</v>
       </c>
       <c r="CK2" s="3">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="CL2" s="3">
         <v>0</v>
       </c>
       <c r="CM2" s="3">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="CN2" s="3">
         <v>504</v>
@@ -1937,10 +2298,10 @@
         <v>504</v>
       </c>
       <c r="CQ2" s="3">
+        <v>504</v>
+      </c>
+      <c r="CR2" s="3">
         <v>0</v>
-      </c>
-      <c r="CR2" s="3">
-        <v>504</v>
       </c>
       <c r="CS2" s="3">
         <v>504</v>
@@ -2032,13 +2393,16 @@
       <c r="DV2" s="3">
         <v>504</v>
       </c>
+      <c r="DW2" s="3">
+        <v>504</v>
+      </c>
     </row>
-    <row r="3" ht="15">
+    <row r="3" ht="14.25" spans="1:127">
       <c r="A3" s="1">
         <v>201</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="3">
         <v>505</v>
@@ -2245,10 +2609,10 @@
         <v>505</v>
       </c>
       <c r="BS3" s="3">
+        <v>505</v>
+      </c>
+      <c r="BT3" s="3">
         <v>4</v>
-      </c>
-      <c r="BT3" s="3">
-        <v>505</v>
       </c>
       <c r="BU3" s="3">
         <v>505</v>
@@ -2299,13 +2663,13 @@
         <v>505</v>
       </c>
       <c r="CK3" s="3">
+        <v>505</v>
+      </c>
+      <c r="CL3" s="3">
         <v>3</v>
       </c>
-      <c r="CL3" s="3">
+      <c r="CM3" s="3">
         <v>1</v>
-      </c>
-      <c r="CM3" s="3">
-        <v>505</v>
       </c>
       <c r="CN3" s="3">
         <v>505</v>
@@ -2317,10 +2681,10 @@
         <v>505</v>
       </c>
       <c r="CQ3" s="3">
+        <v>505</v>
+      </c>
+      <c r="CR3" s="3">
         <v>2</v>
-      </c>
-      <c r="CR3" s="3">
-        <v>505</v>
       </c>
       <c r="CS3" s="3">
         <v>505</v>
@@ -2412,13 +2776,16 @@
       <c r="DV3" s="3">
         <v>505</v>
       </c>
+      <c r="DW3" s="3">
+        <v>505</v>
+      </c>
     </row>
-    <row r="4" ht="15">
+    <row r="4" ht="14.25" spans="1:127">
       <c r="A4" s="1">
         <v>202</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3">
         <v>508</v>
@@ -2556,7 +2923,7 @@
         <v>508</v>
       </c>
       <c r="AV4" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW4" s="3">
         <v>508</v>
@@ -2625,10 +2992,10 @@
         <v>508</v>
       </c>
       <c r="BS4" s="3">
-        <v>180</v>
+        <v>508</v>
       </c>
       <c r="BT4" s="3">
-        <v>508</v>
+        <v>182</v>
       </c>
       <c r="BU4" s="3">
         <v>508</v>
@@ -2792,13 +3159,16 @@
       <c r="DV4" s="3">
         <v>508</v>
       </c>
+      <c r="DW4" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="5" ht="15">
+    <row r="5" ht="14.25" spans="1:127">
       <c r="A5" s="1">
         <v>203</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3">
         <v>506</v>
@@ -2936,7 +3306,7 @@
         <v>506</v>
       </c>
       <c r="AV5" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW5" s="3">
         <v>506</v>
@@ -3005,10 +3375,10 @@
         <v>506</v>
       </c>
       <c r="BS5" s="3">
+        <v>506</v>
+      </c>
+      <c r="BT5" s="3">
         <v>6</v>
-      </c>
-      <c r="BT5" s="3">
-        <v>506</v>
       </c>
       <c r="BU5" s="3">
         <v>506</v>
@@ -3172,13 +3542,16 @@
       <c r="DV5" s="3">
         <v>506</v>
       </c>
+      <c r="DW5" s="3">
+        <v>506</v>
+      </c>
     </row>
-    <row r="6" ht="15">
+    <row r="6" ht="14.25" spans="1:127">
       <c r="A6" s="1">
         <v>204</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3">
         <v>508</v>
@@ -3316,7 +3689,7 @@
         <v>508</v>
       </c>
       <c r="AV6" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW6" s="3">
         <v>508</v>
@@ -3552,13 +3925,16 @@
       <c r="DV6" s="3">
         <v>508</v>
       </c>
+      <c r="DW6" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="7" ht="15">
+    <row r="7" ht="14.25" spans="1:127">
       <c r="A7" s="1">
         <v>205</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" s="3">
         <v>508</v>
@@ -3696,7 +4072,7 @@
         <v>508</v>
       </c>
       <c r="AV7" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW7" s="3">
         <v>508</v>
@@ -3932,13 +4308,16 @@
       <c r="DV7" s="3">
         <v>508</v>
       </c>
+      <c r="DW7" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="8" ht="15">
+    <row r="8" ht="14.25" spans="1:127">
       <c r="A8" s="1">
         <v>206</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" s="3">
         <v>508</v>
@@ -4079,7 +4458,7 @@
         <v>508</v>
       </c>
       <c r="AW8" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX8" s="3">
         <v>508</v>
@@ -4312,13 +4691,16 @@
       <c r="DV8" s="3">
         <v>508</v>
       </c>
+      <c r="DW8" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="9" ht="15">
+    <row r="9" ht="14.25" spans="1:127">
       <c r="A9" s="1">
         <v>207</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="3">
         <v>507</v>
@@ -4597,10 +4979,10 @@
         <v>507</v>
       </c>
       <c r="CQ9" s="3">
+        <v>507</v>
+      </c>
+      <c r="CR9" s="3">
         <v>11</v>
-      </c>
-      <c r="CR9" s="3">
-        <v>507</v>
       </c>
       <c r="CS9" s="3">
         <v>507</v>
@@ -4692,13 +5074,16 @@
       <c r="DV9" s="3">
         <v>507</v>
       </c>
+      <c r="DW9" s="3">
+        <v>507</v>
+      </c>
     </row>
-    <row r="10" ht="15">
+    <row r="10" ht="14.25" spans="1:127">
       <c r="A10" s="1">
         <v>208</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="3">
         <v>508</v>
@@ -4869,10 +5254,10 @@
         <v>508</v>
       </c>
       <c r="BG10" s="3">
-        <v>180</v>
+        <v>508</v>
       </c>
       <c r="BH10" s="3">
-        <v>508</v>
+        <v>182</v>
       </c>
       <c r="BI10" s="3">
         <v>508</v>
@@ -5072,13 +5457,16 @@
       <c r="DV10" s="3">
         <v>508</v>
       </c>
+      <c r="DW10" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="11" ht="15">
+    <row r="11" ht="14.25" spans="1:127">
       <c r="A11" s="1">
         <v>209</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" s="3">
         <v>509</v>
@@ -5219,7 +5607,7 @@
         <v>509</v>
       </c>
       <c r="AW11" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX11" s="3">
         <v>509</v>
@@ -5249,11 +5637,11 @@
         <v>509</v>
       </c>
       <c r="BG11" s="3">
+        <v>509</v>
+      </c>
+      <c r="BH11" s="3">
         <v>13</v>
       </c>
-      <c r="BH11" s="3">
-        <v>509</v>
-      </c>
       <c r="BI11" s="3">
         <v>509</v>
       </c>
@@ -5452,13 +5840,16 @@
       <c r="DV11" s="3">
         <v>509</v>
       </c>
+      <c r="DW11" s="3">
+        <v>509</v>
+      </c>
     </row>
-    <row r="12" ht="15">
+    <row r="12" ht="14.25" spans="1:127">
       <c r="A12" s="1">
         <v>210</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3">
         <v>506</v>
@@ -5665,10 +6056,10 @@
         <v>506</v>
       </c>
       <c r="BS12" s="3">
+        <v>506</v>
+      </c>
+      <c r="BT12" s="3">
         <v>14</v>
-      </c>
-      <c r="BT12" s="3">
-        <v>506</v>
       </c>
       <c r="BU12" s="3">
         <v>506</v>
@@ -5832,13 +6223,16 @@
       <c r="DV12" s="3">
         <v>506</v>
       </c>
+      <c r="DW12" s="3">
+        <v>506</v>
+      </c>
     </row>
-    <row r="13" ht="15">
+    <row r="13" ht="14.25" spans="1:127">
       <c r="A13" s="1">
         <v>211</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3">
         <v>510</v>
@@ -5991,7 +6385,7 @@
         <v>510</v>
       </c>
       <c r="BA13" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB13" s="3">
         <v>510</v>
@@ -6212,13 +6606,16 @@
       <c r="DV13" s="3">
         <v>510</v>
       </c>
+      <c r="DW13" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="14" ht="15">
+    <row r="14" ht="14.25" spans="1:127">
       <c r="A14" s="1">
         <v>212</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3">
         <v>511</v>
@@ -6356,7 +6753,7 @@
         <v>511</v>
       </c>
       <c r="AV14" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW14" s="3">
         <v>511</v>
@@ -6592,13 +6989,16 @@
       <c r="DV14" s="3">
         <v>511</v>
       </c>
+      <c r="DW14" s="3">
+        <v>511</v>
+      </c>
     </row>
-    <row r="15" ht="15">
+    <row r="15" ht="14.25" spans="1:127">
       <c r="A15" s="1">
         <v>213</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" s="3">
         <v>508</v>
@@ -6739,7 +7139,7 @@
         <v>508</v>
       </c>
       <c r="AW15" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX15" s="3">
         <v>508</v>
@@ -6972,13 +7372,16 @@
       <c r="DV15" s="3">
         <v>508</v>
       </c>
+      <c r="DW15" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="16" ht="15">
+    <row r="16" ht="14.25" spans="1:127">
       <c r="A16" s="1">
         <v>214</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="3">
         <v>512</v>
@@ -7251,13 +7654,13 @@
         <v>512</v>
       </c>
       <c r="CO16" s="3">
+        <v>512</v>
+      </c>
+      <c r="CP16" s="3">
         <v>18</v>
       </c>
-      <c r="CP16" s="3">
+      <c r="CQ16" s="3">
         <v>21</v>
-      </c>
-      <c r="CQ16" s="3">
-        <v>512</v>
       </c>
       <c r="CR16" s="3">
         <v>512</v>
@@ -7352,13 +7755,16 @@
       <c r="DV16" s="3">
         <v>512</v>
       </c>
+      <c r="DW16" s="3">
+        <v>512</v>
+      </c>
     </row>
-    <row r="17" ht="15">
+    <row r="17" ht="14.25" spans="1:127">
       <c r="A17" s="1">
         <v>215</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" s="3">
         <v>510</v>
@@ -7511,7 +7917,7 @@
         <v>510</v>
       </c>
       <c r="BA17" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB17" s="3">
         <v>510</v>
@@ -7732,13 +8138,16 @@
       <c r="DV17" s="3">
         <v>510</v>
       </c>
+      <c r="DW17" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="18" ht="15">
+    <row r="18" ht="14.25" spans="1:127">
       <c r="A18" s="1">
         <v>216</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" s="3">
         <v>508</v>
@@ -7879,7 +8288,7 @@
         <v>508</v>
       </c>
       <c r="AW18" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX18" s="3">
         <v>508</v>
@@ -8112,13 +8521,16 @@
       <c r="DV18" s="3">
         <v>508</v>
       </c>
+      <c r="DW18" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="19" ht="15">
+    <row r="19" ht="14.25" spans="1:127">
       <c r="A19" s="1">
         <v>217</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C19" s="3">
         <v>508</v>
@@ -8259,7 +8671,7 @@
         <v>508</v>
       </c>
       <c r="AW19" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX19" s="3">
         <v>508</v>
@@ -8492,13 +8904,16 @@
       <c r="DV19" s="3">
         <v>508</v>
       </c>
+      <c r="DW19" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="20" ht="15">
+    <row r="20" ht="14.25" spans="1:127">
       <c r="A20" s="1">
         <v>218</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C20" s="3">
         <v>513</v>
@@ -8669,7 +9084,7 @@
         <v>513</v>
       </c>
       <c r="BG20" s="3">
-        <v>513</v>
+        <v>180</v>
       </c>
       <c r="BH20" s="3">
         <v>513</v>
@@ -8678,10 +9093,10 @@
         <v>513</v>
       </c>
       <c r="BJ20" s="3">
+        <v>513</v>
+      </c>
+      <c r="BK20" s="3">
         <v>26</v>
-      </c>
-      <c r="BK20" s="3">
-        <v>513</v>
       </c>
       <c r="BL20" s="3">
         <v>513</v>
@@ -8708,13 +9123,13 @@
         <v>513</v>
       </c>
       <c r="BT20" s="3">
+        <v>513</v>
+      </c>
+      <c r="BU20" s="3">
         <v>27</v>
       </c>
-      <c r="BU20" s="3">
+      <c r="BV20" s="3">
         <v>25</v>
-      </c>
-      <c r="BV20" s="3">
-        <v>513</v>
       </c>
       <c r="BW20" s="3">
         <v>513</v>
@@ -8765,13 +9180,13 @@
         <v>513</v>
       </c>
       <c r="CM20" s="3">
+        <v>513</v>
+      </c>
+      <c r="CN20" s="3">
         <v>24</v>
       </c>
-      <c r="CN20" s="3">
+      <c r="CO20" s="3">
         <v>23</v>
-      </c>
-      <c r="CO20" s="3">
-        <v>513</v>
       </c>
       <c r="CP20" s="3">
         <v>513</v>
@@ -8872,13 +9287,16 @@
       <c r="DV20" s="3">
         <v>513</v>
       </c>
+      <c r="DW20" s="3">
+        <v>513</v>
+      </c>
     </row>
-    <row r="21" ht="15">
+    <row r="21" ht="14.25" spans="1:127">
       <c r="A21" s="1">
         <v>219</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" s="3">
         <v>515</v>
@@ -9052,16 +9470,16 @@
         <v>515</v>
       </c>
       <c r="BH21" s="3">
+        <v>515</v>
+      </c>
+      <c r="BI21" s="3">
         <v>30</v>
       </c>
-      <c r="BI21" s="3">
+      <c r="BJ21" s="3">
         <v>31</v>
       </c>
-      <c r="BJ21" s="3">
+      <c r="BK21" s="3">
         <v>33</v>
-      </c>
-      <c r="BK21" s="3">
-        <v>515</v>
       </c>
       <c r="BL21" s="3">
         <v>515</v>
@@ -9252,13 +9670,16 @@
       <c r="DV21" s="3">
         <v>515</v>
       </c>
+      <c r="DW21" s="3">
+        <v>515</v>
+      </c>
     </row>
-    <row r="22" ht="15">
+    <row r="22" ht="14.25" spans="1:127">
       <c r="A22" s="1">
         <v>220</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" s="3">
         <v>516</v>
@@ -9519,10 +9940,10 @@
         <v>516</v>
       </c>
       <c r="CK22" s="3">
+        <v>516</v>
+      </c>
+      <c r="CL22" s="3">
         <v>34</v>
-      </c>
-      <c r="CL22" s="3">
-        <v>516</v>
       </c>
       <c r="CM22" s="3">
         <v>516</v>
@@ -9632,13 +10053,16 @@
       <c r="DV22" s="3">
         <v>516</v>
       </c>
+      <c r="DW22" s="3">
+        <v>516</v>
+      </c>
     </row>
-    <row r="23" ht="15">
+    <row r="23" ht="14.25" spans="1:127">
       <c r="A23" s="1">
         <v>221</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="3">
         <v>518</v>
@@ -10012,13 +10436,16 @@
       <c r="DV23" s="3">
         <v>518</v>
       </c>
+      <c r="DW23" s="3">
+        <v>518</v>
+      </c>
     </row>
-    <row r="24" ht="15">
+    <row r="24" ht="14.25" spans="1:127">
       <c r="A24" s="1">
         <v>222</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C24" s="3">
         <v>519</v>
@@ -10225,10 +10652,10 @@
         <v>519</v>
       </c>
       <c r="BS24" s="3">
+        <v>519</v>
+      </c>
+      <c r="BT24" s="3">
         <v>36</v>
-      </c>
-      <c r="BT24" s="3">
-        <v>519</v>
       </c>
       <c r="BU24" s="3">
         <v>519</v>
@@ -10392,13 +10819,16 @@
       <c r="DV24" s="3">
         <v>519</v>
       </c>
+      <c r="DW24" s="3">
+        <v>519</v>
+      </c>
     </row>
-    <row r="25" ht="15">
+    <row r="25" ht="14.25" spans="1:127">
       <c r="A25" s="1">
         <v>223</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" s="3">
         <v>510</v>
@@ -10551,7 +10981,7 @@
         <v>510</v>
       </c>
       <c r="BA25" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB25" s="3">
         <v>510</v>
@@ -10772,13 +11202,16 @@
       <c r="DV25" s="3">
         <v>510</v>
       </c>
+      <c r="DW25" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="26" ht="15">
+    <row r="26" ht="14.25" spans="1:127">
       <c r="A26" s="1">
         <v>224</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" s="3">
         <v>511</v>
@@ -10916,7 +11349,7 @@
         <v>511</v>
       </c>
       <c r="AV26" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW26" s="3">
         <v>511</v>
@@ -11152,13 +11585,16 @@
       <c r="DV26" s="3">
         <v>511</v>
       </c>
+      <c r="DW26" s="3">
+        <v>511</v>
+      </c>
     </row>
-    <row r="27" ht="15">
+    <row r="27" ht="14.25" spans="1:127">
       <c r="A27" s="1">
         <v>225</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27" s="3">
         <v>508</v>
@@ -11299,7 +11735,7 @@
         <v>508</v>
       </c>
       <c r="AW27" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX27" s="3">
         <v>508</v>
@@ -11532,13 +11968,16 @@
       <c r="DV27" s="3">
         <v>508</v>
       </c>
+      <c r="DW27" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="28" ht="15">
+    <row r="28" ht="14.25" spans="1:127">
       <c r="A28" s="1">
         <v>226</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C28" s="3">
         <v>510</v>
@@ -11691,7 +12130,7 @@
         <v>510</v>
       </c>
       <c r="BA28" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB28" s="3">
         <v>510</v>
@@ -11912,13 +12351,16 @@
       <c r="DV28" s="3">
         <v>510</v>
       </c>
+      <c r="DW28" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="29" ht="15">
+    <row r="29" ht="14.25" spans="1:127">
       <c r="A29" s="1">
         <v>227</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C29" s="3">
         <v>520</v>
@@ -12089,19 +12531,19 @@
         <v>520</v>
       </c>
       <c r="BG29" s="3">
+        <v>520</v>
+      </c>
+      <c r="BH29" s="3">
         <v>57</v>
-      </c>
-      <c r="BH29" s="3">
-        <v>520</v>
       </c>
       <c r="BI29" s="3">
         <v>520</v>
       </c>
       <c r="BJ29" s="3">
+        <v>520</v>
+      </c>
+      <c r="BK29" s="3">
         <v>50</v>
-      </c>
-      <c r="BK29" s="3">
-        <v>520</v>
       </c>
       <c r="BL29" s="3">
         <v>520</v>
@@ -12128,16 +12570,16 @@
         <v>520</v>
       </c>
       <c r="BT29" s="3">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="BU29" s="3">
         <v>50</v>
       </c>
       <c r="BV29" s="3">
+        <v>50</v>
+      </c>
+      <c r="BW29" s="3">
         <v>43</v>
-      </c>
-      <c r="BW29" s="3">
-        <v>520</v>
       </c>
       <c r="BX29" s="3">
         <v>520</v>
@@ -12185,13 +12627,13 @@
         <v>520</v>
       </c>
       <c r="CM29" s="3">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="CN29" s="3">
         <v>50</v>
       </c>
       <c r="CO29" s="3">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="CP29" s="3">
         <v>520</v>
@@ -12292,13 +12734,16 @@
       <c r="DV29" s="3">
         <v>520</v>
       </c>
+      <c r="DW29" s="3">
+        <v>520</v>
+      </c>
     </row>
-    <row r="30" ht="15">
+    <row r="30" ht="14.25" spans="1:127">
       <c r="A30" s="1">
         <v>228</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C30" s="3">
         <v>521</v>
@@ -12469,19 +12914,19 @@
         <v>521</v>
       </c>
       <c r="BG30" s="3">
+        <v>521</v>
+      </c>
+      <c r="BH30" s="3">
         <v>45</v>
-      </c>
-      <c r="BH30" s="3">
-        <v>521</v>
       </c>
       <c r="BI30" s="3">
         <v>521</v>
       </c>
       <c r="BJ30" s="3">
+        <v>521</v>
+      </c>
+      <c r="BK30" s="3">
         <v>44</v>
-      </c>
-      <c r="BK30" s="3">
-        <v>521</v>
       </c>
       <c r="BL30" s="3">
         <v>521</v>
@@ -12508,13 +12953,13 @@
         <v>521</v>
       </c>
       <c r="BT30" s="3">
-        <v>44</v>
+        <v>521</v>
       </c>
       <c r="BU30" s="3">
         <v>44</v>
       </c>
       <c r="BV30" s="3">
-        <v>521</v>
+        <v>44</v>
       </c>
       <c r="BW30" s="3">
         <v>521</v>
@@ -12565,13 +13010,13 @@
         <v>521</v>
       </c>
       <c r="CM30" s="3">
-        <v>44</v>
+        <v>521</v>
       </c>
       <c r="CN30" s="3">
         <v>44</v>
       </c>
       <c r="CO30" s="3">
-        <v>521</v>
+        <v>44</v>
       </c>
       <c r="CP30" s="3">
         <v>521</v>
@@ -12672,13 +13117,16 @@
       <c r="DV30" s="3">
         <v>521</v>
       </c>
+      <c r="DW30" s="3">
+        <v>521</v>
+      </c>
     </row>
-    <row r="31" ht="15">
+    <row r="31" ht="14.25" spans="1:127">
       <c r="A31" s="1">
         <v>229</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C31" s="3">
         <v>522</v>
@@ -12897,10 +13345,10 @@
         <v>522</v>
       </c>
       <c r="BW31" s="3">
+        <v>522</v>
+      </c>
+      <c r="BX31" s="3">
         <v>49</v>
-      </c>
-      <c r="BX31" s="3">
-        <v>522</v>
       </c>
       <c r="BY31" s="3">
         <v>522</v>
@@ -13052,13 +13500,16 @@
       <c r="DV31" s="3">
         <v>522</v>
       </c>
+      <c r="DW31" s="3">
+        <v>522</v>
+      </c>
     </row>
-    <row r="32" ht="15">
+    <row r="32" ht="14.25" spans="1:127">
       <c r="A32" s="1">
         <v>230</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C32" s="3">
         <v>523</v>
@@ -13205,7 +13656,7 @@
         <v>523</v>
       </c>
       <c r="AY32" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ32" s="3">
         <v>47</v>
@@ -13229,7 +13680,7 @@
         <v>47</v>
       </c>
       <c r="BG32" s="3">
-        <v>47</v>
+        <v>523</v>
       </c>
       <c r="BH32" s="3">
         <v>47</v>
@@ -13241,7 +13692,7 @@
         <v>47</v>
       </c>
       <c r="BK32" s="3">
-        <v>523</v>
+        <v>47</v>
       </c>
       <c r="BL32" s="3">
         <v>523</v>
@@ -13292,7 +13743,7 @@
         <v>523</v>
       </c>
       <c r="CB32" s="3">
-        <v>47</v>
+        <v>523</v>
       </c>
       <c r="CC32" s="3">
         <v>47</v>
@@ -13316,7 +13767,7 @@
         <v>47</v>
       </c>
       <c r="CJ32" s="3">
-        <v>523</v>
+        <v>47</v>
       </c>
       <c r="CK32" s="3">
         <v>523</v>
@@ -13340,7 +13791,7 @@
         <v>523</v>
       </c>
       <c r="CR32" s="3">
-        <v>47</v>
+        <v>523</v>
       </c>
       <c r="CS32" s="3">
         <v>47</v>
@@ -13376,7 +13827,7 @@
         <v>47</v>
       </c>
       <c r="DD32" s="3">
-        <v>523</v>
+        <v>47</v>
       </c>
       <c r="DE32" s="3">
         <v>523</v>
@@ -13432,13 +13883,16 @@
       <c r="DV32" s="3">
         <v>523</v>
       </c>
+      <c r="DW32" s="3">
+        <v>523</v>
+      </c>
     </row>
-    <row r="33" ht="15">
+    <row r="33" ht="14.25" spans="1:127">
       <c r="A33" s="1">
         <v>231</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C33" s="3">
         <v>510</v>
@@ -13585,7 +14039,7 @@
         <v>510</v>
       </c>
       <c r="AY33" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ33" s="3">
         <v>510</v>
@@ -13812,13 +14266,16 @@
       <c r="DV33" s="3">
         <v>510</v>
       </c>
+      <c r="DW33" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="34" ht="15">
+    <row r="34" ht="14.25" spans="1:127">
       <c r="A34" s="1">
         <v>232</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3">
         <v>514</v>
@@ -13869,7 +14326,7 @@
         <v>514</v>
       </c>
       <c r="S34" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T34" s="3">
         <v>514</v>
@@ -13956,7 +14413,7 @@
         <v>514</v>
       </c>
       <c r="AV34" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW34" s="3">
         <v>514</v>
@@ -14025,10 +14482,10 @@
         <v>514</v>
       </c>
       <c r="BS34" s="3">
-        <v>180</v>
+        <v>514</v>
       </c>
       <c r="BT34" s="3">
-        <v>514</v>
+        <v>182</v>
       </c>
       <c r="BU34" s="3">
         <v>514</v>
@@ -14192,13 +14649,16 @@
       <c r="DV34" s="3">
         <v>514</v>
       </c>
+      <c r="DW34" s="3">
+        <v>514</v>
+      </c>
     </row>
-    <row r="35" ht="15">
+    <row r="35" ht="14.25" spans="1:127">
       <c r="A35" s="1">
         <v>233</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C35" s="3">
         <v>524</v>
@@ -14372,7 +14832,7 @@
         <v>524</v>
       </c>
       <c r="BH35" s="3">
-        <v>52</v>
+        <v>524</v>
       </c>
       <c r="BI35" s="3">
         <v>52</v>
@@ -14381,7 +14841,7 @@
         <v>52</v>
       </c>
       <c r="BK35" s="3">
-        <v>524</v>
+        <v>52</v>
       </c>
       <c r="BL35" s="3">
         <v>524</v>
@@ -14572,13 +15032,16 @@
       <c r="DV35" s="3">
         <v>524</v>
       </c>
+      <c r="DW35" s="3">
+        <v>524</v>
+      </c>
     </row>
-    <row r="36" ht="15">
+    <row r="36" ht="14.25" spans="1:127">
       <c r="A36" s="1">
         <v>234</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C36" s="3">
         <v>509</v>
@@ -14749,11 +15212,11 @@
         <v>509</v>
       </c>
       <c r="BG36" s="3">
+        <v>509</v>
+      </c>
+      <c r="BH36" s="3">
         <v>54</v>
       </c>
-      <c r="BH36" s="3">
-        <v>509</v>
-      </c>
       <c r="BI36" s="3">
         <v>509</v>
       </c>
@@ -14851,13 +15314,13 @@
         <v>509</v>
       </c>
       <c r="CO36" s="3">
-        <v>180</v>
+        <v>509</v>
       </c>
       <c r="CP36" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CQ36" s="3">
-        <v>509</v>
+        <v>182</v>
       </c>
       <c r="CR36" s="3">
         <v>509</v>
@@ -14952,13 +15415,16 @@
       <c r="DV36" s="3">
         <v>509</v>
       </c>
+      <c r="DW36" s="3">
+        <v>509</v>
+      </c>
     </row>
-    <row r="37" ht="15">
+    <row r="37" ht="14.25" spans="1:127">
       <c r="A37" s="1">
         <v>235</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C37" s="3">
         <v>510</v>
@@ -15129,10 +15595,10 @@
         <v>510</v>
       </c>
       <c r="BG37" s="3">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="BH37" s="3">
-        <v>510</v>
+        <v>182</v>
       </c>
       <c r="BI37" s="3">
         <v>510</v>
@@ -15332,13 +15798,16 @@
       <c r="DV37" s="3">
         <v>510</v>
       </c>
+      <c r="DW37" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="38" ht="15">
+    <row r="38" ht="14.25" spans="1:127">
       <c r="A38" s="1">
         <v>236</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C38" s="3">
         <v>510</v>
@@ -15479,7 +15948,7 @@
         <v>510</v>
       </c>
       <c r="AW38" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX38" s="3">
         <v>510</v>
@@ -15712,13 +16181,16 @@
       <c r="DV38" s="3">
         <v>510</v>
       </c>
+      <c r="DW38" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="39" ht="15">
+    <row r="39" ht="14.25" spans="1:127">
       <c r="A39" s="1">
         <v>237</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C39" s="3">
         <v>525</v>
@@ -16042,10 +16514,10 @@
         <v>525</v>
       </c>
       <c r="DF39" s="3">
+        <v>525</v>
+      </c>
+      <c r="DG39" s="3">
         <v>64</v>
-      </c>
-      <c r="DG39" s="3">
-        <v>525</v>
       </c>
       <c r="DH39" s="3">
         <v>525</v>
@@ -16092,13 +16564,16 @@
       <c r="DV39" s="3">
         <v>525</v>
       </c>
+      <c r="DW39" s="3">
+        <v>525</v>
+      </c>
     </row>
-    <row r="40" ht="15">
+    <row r="40" ht="14.25" spans="1:127">
       <c r="A40" s="1">
         <v>238</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C40" s="3">
         <v>524</v>
@@ -16272,7 +16747,7 @@
         <v>524</v>
       </c>
       <c r="BH40" s="3">
-        <v>59</v>
+        <v>524</v>
       </c>
       <c r="BI40" s="3">
         <v>59</v>
@@ -16281,7 +16756,7 @@
         <v>59</v>
       </c>
       <c r="BK40" s="3">
-        <v>524</v>
+        <v>59</v>
       </c>
       <c r="BL40" s="3">
         <v>524</v>
@@ -16472,13 +16947,16 @@
       <c r="DV40" s="3">
         <v>524</v>
       </c>
+      <c r="DW40" s="3">
+        <v>524</v>
+      </c>
     </row>
-    <row r="41" ht="15">
+    <row r="41" ht="14.25" spans="1:127">
       <c r="A41" s="1">
         <v>239</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C41" s="3">
         <v>509</v>
@@ -16649,11 +17127,11 @@
         <v>509</v>
       </c>
       <c r="BG41" s="3">
+        <v>509</v>
+      </c>
+      <c r="BH41" s="3">
         <v>61</v>
       </c>
-      <c r="BH41" s="3">
-        <v>509</v>
-      </c>
       <c r="BI41" s="3">
         <v>509</v>
       </c>
@@ -16751,13 +17229,13 @@
         <v>509</v>
       </c>
       <c r="CO41" s="3">
-        <v>180</v>
+        <v>509</v>
       </c>
       <c r="CP41" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CQ41" s="3">
-        <v>509</v>
+        <v>182</v>
       </c>
       <c r="CR41" s="3">
         <v>509</v>
@@ -16852,13 +17330,16 @@
       <c r="DV41" s="3">
         <v>509</v>
       </c>
+      <c r="DW41" s="3">
+        <v>509</v>
+      </c>
     </row>
-    <row r="42" ht="15">
+    <row r="42" ht="14.25" spans="1:127">
       <c r="A42" s="1">
         <v>240</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C42" s="3">
         <v>510</v>
@@ -17029,10 +17510,10 @@
         <v>510</v>
       </c>
       <c r="BG42" s="3">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="BH42" s="3">
-        <v>510</v>
+        <v>182</v>
       </c>
       <c r="BI42" s="3">
         <v>510</v>
@@ -17232,13 +17713,16 @@
       <c r="DV42" s="3">
         <v>510</v>
       </c>
+      <c r="DW42" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="43" ht="15">
+    <row r="43" ht="14.25" spans="1:127">
       <c r="A43" s="1">
         <v>241</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C43" s="3">
         <v>510</v>
@@ -17379,7 +17863,7 @@
         <v>510</v>
       </c>
       <c r="AW43" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX43" s="3">
         <v>510</v>
@@ -17612,13 +18096,16 @@
       <c r="DV43" s="3">
         <v>510</v>
       </c>
+      <c r="DW43" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="44" ht="15">
+    <row r="44" ht="14.25" spans="1:127">
       <c r="A44" s="1">
         <v>242</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C44" s="3">
         <v>526</v>
@@ -17702,7 +18189,7 @@
         <v>526</v>
       </c>
       <c r="AD44" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE44" s="3">
         <v>526</v>
@@ -17942,10 +18429,10 @@
         <v>526</v>
       </c>
       <c r="DF44" s="3">
+        <v>526</v>
+      </c>
+      <c r="DG44" s="3">
         <v>65</v>
-      </c>
-      <c r="DG44" s="3">
-        <v>526</v>
       </c>
       <c r="DH44" s="3">
         <v>526</v>
@@ -17992,13 +18479,16 @@
       <c r="DV44" s="3">
         <v>526</v>
       </c>
+      <c r="DW44" s="3">
+        <v>526</v>
+      </c>
     </row>
-    <row r="45" ht="15">
+    <row r="45" ht="14.25" spans="1:127">
       <c r="A45" s="1">
         <v>243</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C45" s="3">
         <v>522</v>
@@ -18217,10 +18707,10 @@
         <v>522</v>
       </c>
       <c r="BW45" s="3">
+        <v>522</v>
+      </c>
+      <c r="BX45" s="3">
         <v>66</v>
-      </c>
-      <c r="BX45" s="3">
-        <v>522</v>
       </c>
       <c r="BY45" s="3">
         <v>522</v>
@@ -18372,13 +18862,16 @@
       <c r="DV45" s="3">
         <v>522</v>
       </c>
+      <c r="DW45" s="3">
+        <v>522</v>
+      </c>
     </row>
-    <row r="46" ht="15">
+    <row r="46" ht="14.25" spans="1:127">
       <c r="A46" s="1">
         <v>244</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C46" s="3">
         <v>523</v>
@@ -18525,7 +19018,7 @@
         <v>523</v>
       </c>
       <c r="AY46" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ46" s="3">
         <v>68</v>
@@ -18549,7 +19042,7 @@
         <v>68</v>
       </c>
       <c r="BG46" s="3">
-        <v>68</v>
+        <v>523</v>
       </c>
       <c r="BH46" s="3">
         <v>68</v>
@@ -18561,7 +19054,7 @@
         <v>68</v>
       </c>
       <c r="BK46" s="3">
-        <v>523</v>
+        <v>68</v>
       </c>
       <c r="BL46" s="3">
         <v>523</v>
@@ -18612,7 +19105,7 @@
         <v>523</v>
       </c>
       <c r="CB46" s="3">
-        <v>68</v>
+        <v>523</v>
       </c>
       <c r="CC46" s="3">
         <v>68</v>
@@ -18636,7 +19129,7 @@
         <v>68</v>
       </c>
       <c r="CJ46" s="3">
-        <v>523</v>
+        <v>68</v>
       </c>
       <c r="CK46" s="3">
         <v>523</v>
@@ -18660,7 +19153,7 @@
         <v>523</v>
       </c>
       <c r="CR46" s="3">
-        <v>68</v>
+        <v>523</v>
       </c>
       <c r="CS46" s="3">
         <v>68</v>
@@ -18696,7 +19189,7 @@
         <v>68</v>
       </c>
       <c r="DD46" s="3">
-        <v>523</v>
+        <v>68</v>
       </c>
       <c r="DE46" s="3">
         <v>523</v>
@@ -18752,13 +19245,16 @@
       <c r="DV46" s="3">
         <v>523</v>
       </c>
+      <c r="DW46" s="3">
+        <v>523</v>
+      </c>
     </row>
-    <row r="47" ht="15">
+    <row r="47" ht="14.25" spans="1:127">
       <c r="A47" s="1">
         <v>245</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C47" s="3">
         <v>510</v>
@@ -18905,7 +19401,7 @@
         <v>510</v>
       </c>
       <c r="AY47" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ47" s="3">
         <v>510</v>
@@ -19132,13 +19628,16 @@
       <c r="DV47" s="3">
         <v>510</v>
       </c>
+      <c r="DW47" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="48" ht="15">
+    <row r="48" ht="14.25" spans="1:127">
       <c r="A48" s="1">
         <v>246</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C48" s="3">
         <v>509</v>
@@ -19309,11 +19808,11 @@
         <v>509</v>
       </c>
       <c r="BG48" s="3">
+        <v>509</v>
+      </c>
+      <c r="BH48" s="3">
         <v>70</v>
       </c>
-      <c r="BH48" s="3">
-        <v>509</v>
-      </c>
       <c r="BI48" s="3">
         <v>509</v>
       </c>
@@ -19512,13 +20011,16 @@
       <c r="DV48" s="3">
         <v>509</v>
       </c>
+      <c r="DW48" s="3">
+        <v>509</v>
+      </c>
     </row>
-    <row r="49" ht="15">
+    <row r="49" ht="14.25" spans="1:127">
       <c r="A49" s="1">
         <v>247</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C49" s="3">
         <v>517</v>
@@ -19782,10 +20284,10 @@
         <v>517</v>
       </c>
       <c r="CL49" s="3">
+        <v>517</v>
+      </c>
+      <c r="CM49" s="3">
         <v>71</v>
-      </c>
-      <c r="CM49" s="3">
-        <v>517</v>
       </c>
       <c r="CN49" s="3">
         <v>517</v>
@@ -19892,13 +20394,16 @@
       <c r="DV49" s="3">
         <v>517</v>
       </c>
+      <c r="DW49" s="3">
+        <v>517</v>
+      </c>
     </row>
-    <row r="50" ht="15">
+    <row r="50" ht="14.25" spans="1:127">
       <c r="A50" s="1">
         <v>248</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C50" s="3">
         <v>508</v>
@@ -20039,7 +20544,7 @@
         <v>508</v>
       </c>
       <c r="AW50" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX50" s="3">
         <v>508</v>
@@ -20272,13 +20777,16 @@
       <c r="DV50" s="3">
         <v>508</v>
       </c>
+      <c r="DW50" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="51" ht="15">
+    <row r="51" ht="14.25" spans="1:127">
       <c r="A51" s="1">
         <v>249</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C51" s="3">
         <v>509</v>
@@ -20449,11 +20957,11 @@
         <v>509</v>
       </c>
       <c r="BG51" s="3">
+        <v>509</v>
+      </c>
+      <c r="BH51" s="3">
         <v>73</v>
       </c>
-      <c r="BH51" s="3">
-        <v>509</v>
-      </c>
       <c r="BI51" s="3">
         <v>509</v>
       </c>
@@ -20652,13 +21160,16 @@
       <c r="DV51" s="3">
         <v>509</v>
       </c>
+      <c r="DW51" s="3">
+        <v>509</v>
+      </c>
     </row>
-    <row r="52" ht="15">
+    <row r="52" ht="14.25" spans="1:127">
       <c r="A52" s="1">
         <v>250</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C52" s="3">
         <v>510</v>
@@ -20811,7 +21322,7 @@
         <v>510</v>
       </c>
       <c r="BA52" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB52" s="3">
         <v>510</v>
@@ -21032,13 +21543,16 @@
       <c r="DV52" s="3">
         <v>510</v>
       </c>
+      <c r="DW52" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="53" ht="15">
+    <row r="53" ht="14.25" spans="1:127">
       <c r="A53" s="1">
         <v>251</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C53" s="3">
         <v>511</v>
@@ -21176,7 +21690,7 @@
         <v>511</v>
       </c>
       <c r="AV53" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW53" s="3">
         <v>511</v>
@@ -21412,13 +21926,16 @@
       <c r="DV53" s="3">
         <v>511</v>
       </c>
+      <c r="DW53" s="3">
+        <v>511</v>
+      </c>
     </row>
-    <row r="54" ht="15">
+    <row r="54" ht="14.25" spans="1:127">
       <c r="A54" s="1">
         <v>252</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C54" s="3">
         <v>508</v>
@@ -21559,7 +22076,7 @@
         <v>508</v>
       </c>
       <c r="AW54" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX54" s="3">
         <v>508</v>
@@ -21792,13 +22309,16 @@
       <c r="DV54" s="3">
         <v>508</v>
       </c>
+      <c r="DW54" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="55" ht="15">
+    <row r="55" ht="14.25" spans="1:127">
       <c r="A55" s="1">
         <v>253</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C55" s="3">
         <v>527</v>
@@ -22172,13 +22692,16 @@
       <c r="DV55" s="3">
         <v>527</v>
       </c>
+      <c r="DW55" s="3">
+        <v>527</v>
+      </c>
     </row>
-    <row r="56" ht="15">
+    <row r="56" ht="14.25" spans="1:127">
       <c r="A56" s="1">
         <v>254</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C56" s="3">
         <v>528</v>
@@ -22349,7 +22872,7 @@
         <v>93</v>
       </c>
       <c r="BG56" s="3">
-        <v>93</v>
+        <v>528</v>
       </c>
       <c r="BH56" s="3">
         <v>93</v>
@@ -22361,28 +22884,28 @@
         <v>93</v>
       </c>
       <c r="BK56" s="3">
+        <v>93</v>
+      </c>
+      <c r="BL56" s="3">
         <v>89</v>
       </c>
-      <c r="BL56" s="3">
+      <c r="BM56" s="3">
         <v>528</v>
       </c>
-      <c r="BM56" s="3">
+      <c r="BN56" s="3">
         <v>90</v>
       </c>
-      <c r="BN56" s="3">
+      <c r="BO56" s="3">
         <v>96</v>
       </c>
-      <c r="BO56" s="3">
+      <c r="BP56" s="3">
         <v>95</v>
       </c>
-      <c r="BP56" s="3">
+      <c r="BQ56" s="3">
         <v>92</v>
       </c>
-      <c r="BQ56" s="3">
+      <c r="BR56" s="3">
         <v>88</v>
-      </c>
-      <c r="BR56" s="3">
-        <v>528</v>
       </c>
       <c r="BS56" s="3">
         <v>528</v>
@@ -22409,10 +22932,10 @@
         <v>528</v>
       </c>
       <c r="CA56" s="3">
+        <v>528</v>
+      </c>
+      <c r="CB56" s="3">
         <v>94</v>
-      </c>
-      <c r="CB56" s="3">
-        <v>93</v>
       </c>
       <c r="CC56" s="3">
         <v>93</v>
@@ -22436,7 +22959,7 @@
         <v>93</v>
       </c>
       <c r="CJ56" s="3">
-        <v>528</v>
+        <v>93</v>
       </c>
       <c r="CK56" s="3">
         <v>528</v>
@@ -22460,7 +22983,7 @@
         <v>528</v>
       </c>
       <c r="CR56" s="3">
-        <v>93</v>
+        <v>528</v>
       </c>
       <c r="CS56" s="3">
         <v>93</v>
@@ -22496,7 +23019,7 @@
         <v>93</v>
       </c>
       <c r="DD56" s="3">
-        <v>528</v>
+        <v>93</v>
       </c>
       <c r="DE56" s="3">
         <v>528</v>
@@ -22552,13 +23075,16 @@
       <c r="DV56" s="3">
         <v>528</v>
       </c>
+      <c r="DW56" s="3">
+        <v>528</v>
+      </c>
     </row>
-    <row r="57" ht="15">
+    <row r="57" ht="14.25" spans="1:127">
       <c r="A57" s="1">
         <v>255</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C57" s="3">
         <v>529</v>
@@ -22762,10 +23288,10 @@
         <v>529</v>
       </c>
       <c r="BR57" s="3">
+        <v>529</v>
+      </c>
+      <c r="BS57" s="3">
         <v>98</v>
-      </c>
-      <c r="BS57" s="3">
-        <v>529</v>
       </c>
       <c r="BT57" s="3">
         <v>529</v>
@@ -22780,10 +23306,10 @@
         <v>529</v>
       </c>
       <c r="BX57" s="3">
+        <v>529</v>
+      </c>
+      <c r="BY57" s="3">
         <v>97</v>
-      </c>
-      <c r="BY57" s="3">
-        <v>529</v>
       </c>
       <c r="BZ57" s="3">
         <v>529</v>
@@ -22932,13 +23458,16 @@
       <c r="DV57" s="3">
         <v>529</v>
       </c>
+      <c r="DW57" s="3">
+        <v>529</v>
+      </c>
     </row>
-    <row r="58" ht="15">
+    <row r="58" ht="14.25" spans="1:127">
       <c r="A58" s="1">
         <v>256</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C58" s="3">
         <v>510</v>
@@ -23091,7 +23620,7 @@
         <v>510</v>
       </c>
       <c r="BA58" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB58" s="3">
         <v>510</v>
@@ -23312,13 +23841,16 @@
       <c r="DV58" s="3">
         <v>510</v>
       </c>
+      <c r="DW58" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="59" ht="15">
+    <row r="59" ht="14.25" spans="1:127">
       <c r="A59" s="1">
         <v>257</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C59" s="3">
         <v>530</v>
@@ -23369,7 +23901,7 @@
         <v>530</v>
       </c>
       <c r="S59" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T59" s="3">
         <v>530</v>
@@ -23456,10 +23988,10 @@
         <v>530</v>
       </c>
       <c r="AV59" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW59" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX59" s="3">
         <v>530</v>
@@ -23504,10 +24036,10 @@
         <v>530</v>
       </c>
       <c r="BL59" s="3">
+        <v>530</v>
+      </c>
+      <c r="BM59" s="3">
         <v>100</v>
-      </c>
-      <c r="BM59" s="3">
-        <v>530</v>
       </c>
       <c r="BN59" s="3">
         <v>530</v>
@@ -23516,19 +24048,19 @@
         <v>530</v>
       </c>
       <c r="BP59" s="3">
-        <v>180</v>
+        <v>530</v>
       </c>
       <c r="BQ59" s="3">
-        <v>530</v>
+        <v>182</v>
       </c>
       <c r="BR59" s="3">
         <v>530</v>
       </c>
       <c r="BS59" s="3">
-        <v>180</v>
+        <v>530</v>
       </c>
       <c r="BT59" s="3">
-        <v>530</v>
+        <v>182</v>
       </c>
       <c r="BU59" s="3">
         <v>530</v>
@@ -23576,10 +24108,10 @@
         <v>530</v>
       </c>
       <c r="CJ59" s="3">
-        <v>180</v>
+        <v>530</v>
       </c>
       <c r="CK59" s="3">
-        <v>530</v>
+        <v>182</v>
       </c>
       <c r="CL59" s="3">
         <v>530</v>
@@ -23692,19 +24224,22 @@
       <c r="DV59" s="3">
         <v>530</v>
       </c>
+      <c r="DW59" s="3">
+        <v>530</v>
+      </c>
     </row>
-    <row r="60" ht="15">
+    <row r="60" ht="14.25" spans="1:127">
       <c r="A60" s="1">
         <v>258</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C60" s="3">
         <v>531</v>
       </c>
       <c r="D60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E60" s="3">
         <v>531</v>
@@ -23713,13 +24248,13 @@
         <v>531</v>
       </c>
       <c r="G60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H60" s="3">
         <v>531</v>
       </c>
       <c r="I60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J60" s="3">
         <v>531</v>
@@ -23749,7 +24284,7 @@
         <v>531</v>
       </c>
       <c r="S60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T60" s="3">
         <v>531</v>
@@ -23824,7 +24359,7 @@
         <v>531</v>
       </c>
       <c r="AR60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AS60" s="3">
         <v>531</v>
@@ -23836,7 +24371,7 @@
         <v>531</v>
       </c>
       <c r="AV60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW60" s="3">
         <v>531</v>
@@ -23848,61 +24383,61 @@
         <v>531</v>
       </c>
       <c r="AZ60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BA60" s="3">
         <v>531</v>
       </c>
       <c r="BB60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BC60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BD60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BE60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BF60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BG60" s="3">
-        <v>180</v>
+        <v>531</v>
       </c>
       <c r="BH60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BI60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BJ60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BK60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BL60" s="3">
+        <v>182</v>
+      </c>
+      <c r="BM60" s="3">
         <v>531</v>
       </c>
-      <c r="BM60" s="3">
-        <v>180</v>
-      </c>
       <c r="BN60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BO60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BP60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BQ60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BR60" s="3">
-        <v>531</v>
+        <v>182</v>
       </c>
       <c r="BS60" s="3">
         <v>531</v>
@@ -23923,43 +24458,43 @@
         <v>531</v>
       </c>
       <c r="BY60" s="3">
+        <v>531</v>
+      </c>
+      <c r="BZ60" s="3">
         <v>101</v>
       </c>
-      <c r="BZ60" s="3">
+      <c r="CA60" s="3">
         <v>531</v>
       </c>
-      <c r="CA60" s="3">
-        <v>180</v>
-      </c>
       <c r="CB60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CC60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CD60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CE60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CF60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CG60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CH60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CI60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CJ60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CK60" s="3">
-        <v>531</v>
+        <v>182</v>
       </c>
       <c r="CL60" s="3">
         <v>531</v>
@@ -23980,43 +24515,43 @@
         <v>531</v>
       </c>
       <c r="CR60" s="3">
-        <v>180</v>
+        <v>531</v>
       </c>
       <c r="CS60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CT60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CU60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CV60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CW60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CX60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CY60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CZ60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="DA60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="DB60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="DC60" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="DD60" s="3">
-        <v>531</v>
+        <v>182</v>
       </c>
       <c r="DE60" s="3">
         <v>531</v>
@@ -24072,13 +24607,16 @@
       <c r="DV60" s="3">
         <v>531</v>
       </c>
+      <c r="DW60" s="3">
+        <v>531</v>
+      </c>
     </row>
-    <row r="61" ht="15">
+    <row r="61" ht="14.25" spans="1:127">
       <c r="A61" s="1">
         <v>259</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C61" s="3">
         <v>508</v>
@@ -24336,10 +24874,10 @@
         <v>508</v>
       </c>
       <c r="CJ61" s="3">
-        <v>180</v>
+        <v>508</v>
       </c>
       <c r="CK61" s="3">
-        <v>508</v>
+        <v>182</v>
       </c>
       <c r="CL61" s="3">
         <v>508</v>
@@ -24452,13 +24990,16 @@
       <c r="DV61" s="3">
         <v>508</v>
       </c>
+      <c r="DW61" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="62" ht="15">
+    <row r="62" ht="14.25" spans="1:127">
       <c r="A62" s="1">
         <v>260</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C62" s="3">
         <v>532</v>
@@ -24599,7 +25140,7 @@
         <v>532</v>
       </c>
       <c r="AW62" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX62" s="3">
         <v>532</v>
@@ -24683,13 +25224,13 @@
         <v>532</v>
       </c>
       <c r="BY62" s="3">
+        <v>532</v>
+      </c>
+      <c r="BZ62" s="3">
         <v>103</v>
       </c>
-      <c r="BZ62" s="3">
+      <c r="CA62" s="3">
         <v>104</v>
-      </c>
-      <c r="CA62" s="3">
-        <v>532</v>
       </c>
       <c r="CB62" s="3">
         <v>532</v>
@@ -24832,13 +25373,16 @@
       <c r="DV62" s="3">
         <v>532</v>
       </c>
+      <c r="DW62" s="3">
+        <v>532</v>
+      </c>
     </row>
-    <row r="63" ht="15">
+    <row r="63" ht="14.25" spans="1:127">
       <c r="A63" s="1">
         <v>261</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C63" s="3">
         <v>508</v>
@@ -25096,10 +25640,10 @@
         <v>508</v>
       </c>
       <c r="CJ63" s="3">
-        <v>180</v>
+        <v>508</v>
       </c>
       <c r="CK63" s="3">
-        <v>508</v>
+        <v>182</v>
       </c>
       <c r="CL63" s="3">
         <v>508</v>
@@ -25212,13 +25756,16 @@
       <c r="DV63" s="3">
         <v>508</v>
       </c>
+      <c r="DW63" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="64" ht="15">
+    <row r="64" ht="14.25" spans="1:127">
       <c r="A64" s="1">
         <v>262</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C64" s="3">
         <v>508</v>
@@ -25359,7 +25906,7 @@
         <v>508</v>
       </c>
       <c r="AW64" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX64" s="3">
         <v>508</v>
@@ -25592,13 +26139,16 @@
       <c r="DV64" s="3">
         <v>508</v>
       </c>
+      <c r="DW64" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="65" ht="14.25">
+    <row r="65" ht="14.25" spans="1:127">
       <c r="A65" s="1">
         <v>263</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C65" s="3">
         <v>508</v>
@@ -25739,7 +26289,7 @@
         <v>508</v>
       </c>
       <c r="AW65" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX65" s="3">
         <v>508</v>
@@ -25972,13 +26522,16 @@
       <c r="DV65" s="3">
         <v>508</v>
       </c>
+      <c r="DW65" s="3">
+        <v>508</v>
+      </c>
     </row>
-    <row r="66" ht="14.25">
+    <row r="66" ht="14.25" spans="1:127">
       <c r="A66" s="1">
         <v>264</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C66" s="3">
         <v>533</v>
@@ -26149,7 +26702,7 @@
         <v>108</v>
       </c>
       <c r="BG66" s="3">
-        <v>108</v>
+        <v>533</v>
       </c>
       <c r="BH66" s="3">
         <v>108</v>
@@ -26161,7 +26714,7 @@
         <v>108</v>
       </c>
       <c r="BK66" s="3">
-        <v>533</v>
+        <v>108</v>
       </c>
       <c r="BL66" s="3">
         <v>533</v>
@@ -26212,7 +26765,7 @@
         <v>533</v>
       </c>
       <c r="CB66" s="3">
-        <v>108</v>
+        <v>533</v>
       </c>
       <c r="CC66" s="3">
         <v>108</v>
@@ -26236,13 +26789,13 @@
         <v>108</v>
       </c>
       <c r="CJ66" s="3">
+        <v>108</v>
+      </c>
+      <c r="CK66" s="3">
         <v>533</v>
       </c>
-      <c r="CK66" s="3">
+      <c r="CL66" s="3">
         <v>109</v>
-      </c>
-      <c r="CL66" s="3">
-        <v>533</v>
       </c>
       <c r="CM66" s="3">
         <v>533</v>
@@ -26260,7 +26813,7 @@
         <v>533</v>
       </c>
       <c r="CR66" s="3">
-        <v>108</v>
+        <v>533</v>
       </c>
       <c r="CS66" s="3">
         <v>108</v>
@@ -26296,7 +26849,7 @@
         <v>108</v>
       </c>
       <c r="DD66" s="3">
-        <v>533</v>
+        <v>108</v>
       </c>
       <c r="DE66" s="3">
         <v>533</v>
@@ -26352,13 +26905,16 @@
       <c r="DV66" s="3">
         <v>533</v>
       </c>
+      <c r="DW66" s="3">
+        <v>533</v>
+      </c>
     </row>
-    <row r="67" ht="14.25">
+    <row r="67" ht="14.25" spans="1:127">
       <c r="A67" s="1">
         <v>265</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C67" s="3">
         <v>510</v>
@@ -26409,7 +26965,7 @@
         <v>510</v>
       </c>
       <c r="S67" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T67" s="3">
         <v>510</v>
@@ -26732,13 +27288,16 @@
       <c r="DV67" s="3">
         <v>510</v>
       </c>
+      <c r="DW67" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="68" ht="14.25">
+    <row r="68" ht="14.25" spans="1:127">
       <c r="A68" s="1">
         <v>266</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C68" s="3">
         <v>510</v>
@@ -26891,7 +27450,7 @@
         <v>510</v>
       </c>
       <c r="BA68" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB68" s="3">
         <v>510</v>
@@ -27112,13 +27671,16 @@
       <c r="DV68" s="3">
         <v>510</v>
       </c>
+      <c r="DW68" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="69" ht="14.25">
+    <row r="69" ht="14.25" spans="1:127">
       <c r="A69" s="1">
         <v>267</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C69" s="3">
         <v>534</v>
@@ -27436,13 +27998,13 @@
         <v>534</v>
       </c>
       <c r="DD69" s="3">
+        <v>534</v>
+      </c>
+      <c r="DE69" s="3">
         <v>112</v>
       </c>
-      <c r="DE69" s="3">
+      <c r="DF69" s="3">
         <v>113</v>
-      </c>
-      <c r="DF69" s="3">
-        <v>534</v>
       </c>
       <c r="DG69" s="3">
         <v>534</v>
@@ -27492,13 +28054,16 @@
       <c r="DV69" s="3">
         <v>534</v>
       </c>
+      <c r="DW69" s="3">
+        <v>534</v>
+      </c>
     </row>
-    <row r="70" ht="14.25">
+    <row r="70" ht="14.25" spans="1:127">
       <c r="A70" s="1">
         <v>268</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C70" s="3">
         <v>528</v>
@@ -27669,7 +28234,7 @@
         <v>114</v>
       </c>
       <c r="BG70" s="3">
-        <v>114</v>
+        <v>528</v>
       </c>
       <c r="BH70" s="3">
         <v>114</v>
@@ -27684,10 +28249,10 @@
         <v>114</v>
       </c>
       <c r="BL70" s="3">
+        <v>114</v>
+      </c>
+      <c r="BM70" s="3">
         <v>528</v>
-      </c>
-      <c r="BM70" s="3">
-        <v>114</v>
       </c>
       <c r="BN70" s="3">
         <v>114</v>
@@ -27702,7 +28267,7 @@
         <v>114</v>
       </c>
       <c r="BR70" s="3">
-        <v>528</v>
+        <v>114</v>
       </c>
       <c r="BS70" s="3">
         <v>528</v>
@@ -27729,7 +28294,7 @@
         <v>528</v>
       </c>
       <c r="CA70" s="3">
-        <v>114</v>
+        <v>528</v>
       </c>
       <c r="CB70" s="3">
         <v>114</v>
@@ -27756,7 +28321,7 @@
         <v>114</v>
       </c>
       <c r="CJ70" s="3">
-        <v>528</v>
+        <v>114</v>
       </c>
       <c r="CK70" s="3">
         <v>528</v>
@@ -27780,7 +28345,7 @@
         <v>528</v>
       </c>
       <c r="CR70" s="3">
-        <v>114</v>
+        <v>528</v>
       </c>
       <c r="CS70" s="3">
         <v>114</v>
@@ -27816,7 +28381,7 @@
         <v>114</v>
       </c>
       <c r="DD70" s="3">
-        <v>528</v>
+        <v>114</v>
       </c>
       <c r="DE70" s="3">
         <v>528</v>
@@ -27872,13 +28437,16 @@
       <c r="DV70" s="3">
         <v>528</v>
       </c>
+      <c r="DW70" s="3">
+        <v>528</v>
+      </c>
     </row>
-    <row r="71" ht="14.25">
+    <row r="71" ht="14.25" spans="1:127">
       <c r="A71" s="1">
         <v>269</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C71" s="3">
         <v>535</v>
@@ -28160,43 +28728,43 @@
         <v>535</v>
       </c>
       <c r="CR71" s="3">
+        <v>535</v>
+      </c>
+      <c r="CS71" s="3">
         <v>115</v>
       </c>
-      <c r="CS71" s="3">
+      <c r="CT71" s="3">
         <v>116</v>
       </c>
-      <c r="CT71" s="3">
+      <c r="CU71" s="3">
         <v>117</v>
       </c>
-      <c r="CU71" s="3">
+      <c r="CV71" s="3">
         <v>118</v>
       </c>
-      <c r="CV71" s="3">
+      <c r="CW71" s="3">
         <v>119</v>
       </c>
-      <c r="CW71" s="3">
+      <c r="CX71" s="3">
         <v>120</v>
       </c>
-      <c r="CX71" s="3">
+      <c r="CY71" s="3">
         <v>121</v>
       </c>
-      <c r="CY71" s="3">
+      <c r="CZ71" s="3">
         <v>122</v>
       </c>
-      <c r="CZ71" s="3">
+      <c r="DA71" s="3">
         <v>123</v>
       </c>
-      <c r="DA71" s="3">
+      <c r="DB71" s="3">
         <v>124</v>
       </c>
-      <c r="DB71" s="3">
+      <c r="DC71" s="3">
         <v>125</v>
       </c>
-      <c r="DC71" s="3">
+      <c r="DD71" s="3">
         <v>126</v>
-      </c>
-      <c r="DD71" s="3">
-        <v>535</v>
       </c>
       <c r="DE71" s="3">
         <v>535</v>
@@ -28252,13 +28820,16 @@
       <c r="DV71" s="3">
         <v>535</v>
       </c>
+      <c r="DW71" s="3">
+        <v>535</v>
+      </c>
     </row>
-    <row r="72" ht="14.25">
+    <row r="72" ht="14.25" spans="1:127">
       <c r="A72" s="1">
         <v>270</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C72" s="3">
         <v>536</v>
@@ -28492,31 +29063,31 @@
         <v>536</v>
       </c>
       <c r="CB72" s="3">
+        <v>536</v>
+      </c>
+      <c r="CC72" s="3">
         <v>127</v>
       </c>
-      <c r="CC72" s="3">
+      <c r="CD72" s="3">
         <v>128</v>
       </c>
-      <c r="CD72" s="3">
+      <c r="CE72" s="3">
         <v>129</v>
       </c>
-      <c r="CE72" s="3">
+      <c r="CF72" s="3">
         <v>130</v>
       </c>
-      <c r="CF72" s="3">
+      <c r="CG72" s="3">
         <v>131</v>
       </c>
-      <c r="CG72" s="3">
+      <c r="CH72" s="3">
         <v>132</v>
       </c>
-      <c r="CH72" s="3">
+      <c r="CI72" s="3">
         <v>133</v>
       </c>
-      <c r="CI72" s="3">
+      <c r="CJ72" s="3">
         <v>134</v>
-      </c>
-      <c r="CJ72" s="3">
-        <v>536</v>
       </c>
       <c r="CK72" s="3">
         <v>536</v>
@@ -28540,7 +29111,7 @@
         <v>536</v>
       </c>
       <c r="CR72" s="3">
-        <v>135</v>
+        <v>536</v>
       </c>
       <c r="CS72" s="3">
         <v>135</v>
@@ -28576,7 +29147,7 @@
         <v>135</v>
       </c>
       <c r="DD72" s="3">
-        <v>536</v>
+        <v>135</v>
       </c>
       <c r="DE72" s="3">
         <v>536</v>
@@ -28632,13 +29203,16 @@
       <c r="DV72" s="3">
         <v>536</v>
       </c>
+      <c r="DW72" s="3">
+        <v>536</v>
+      </c>
     </row>
-    <row r="73" ht="14.25">
+    <row r="73" ht="14.25" spans="1:127">
       <c r="A73" s="1">
         <v>271</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C73" s="3">
         <v>537</v>
@@ -29012,13 +29586,16 @@
       <c r="DV73" s="3">
         <v>537</v>
       </c>
+      <c r="DW73" s="3">
+        <v>537</v>
+      </c>
     </row>
-    <row r="74" ht="14.25">
+    <row r="74" ht="14.25" spans="1:127">
       <c r="A74" s="1">
         <v>272</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C74" s="3">
         <v>510</v>
@@ -29165,7 +29742,7 @@
         <v>510</v>
       </c>
       <c r="AY74" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ74" s="3">
         <v>510</v>
@@ -29392,13 +29969,16 @@
       <c r="DV74" s="3">
         <v>510</v>
       </c>
+      <c r="DW74" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="75" ht="14.25">
+    <row r="75" ht="14.25" spans="1:127">
       <c r="A75" s="1">
         <v>273</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C75" s="3">
         <v>523</v>
@@ -29569,7 +30149,7 @@
         <v>138</v>
       </c>
       <c r="BG75" s="3">
-        <v>138</v>
+        <v>523</v>
       </c>
       <c r="BH75" s="3">
         <v>138</v>
@@ -29581,7 +30161,7 @@
         <v>138</v>
       </c>
       <c r="BK75" s="3">
-        <v>523</v>
+        <v>138</v>
       </c>
       <c r="BL75" s="3">
         <v>523</v>
@@ -29632,7 +30212,7 @@
         <v>523</v>
       </c>
       <c r="CB75" s="3">
-        <v>138</v>
+        <v>523</v>
       </c>
       <c r="CC75" s="3">
         <v>138</v>
@@ -29656,7 +30236,7 @@
         <v>138</v>
       </c>
       <c r="CJ75" s="3">
-        <v>523</v>
+        <v>138</v>
       </c>
       <c r="CK75" s="3">
         <v>523</v>
@@ -29680,7 +30260,7 @@
         <v>523</v>
       </c>
       <c r="CR75" s="3">
-        <v>138</v>
+        <v>523</v>
       </c>
       <c r="CS75" s="3">
         <v>138</v>
@@ -29716,7 +30296,7 @@
         <v>138</v>
       </c>
       <c r="DD75" s="3">
-        <v>523</v>
+        <v>138</v>
       </c>
       <c r="DE75" s="3">
         <v>523</v>
@@ -29772,16 +30352,19 @@
       <c r="DV75" s="3">
         <v>523</v>
       </c>
+      <c r="DW75" s="3">
+        <v>523</v>
+      </c>
     </row>
-    <row r="76" ht="14.25">
+    <row r="76" ht="14.25" spans="1:127">
       <c r="A76" s="1">
         <v>274</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D76" s="3">
         <v>538</v>
@@ -29790,7 +30373,7 @@
         <v>538</v>
       </c>
       <c r="F76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G76" s="3">
         <v>538</v>
@@ -29808,43 +30391,43 @@
         <v>139</v>
       </c>
       <c r="L76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N76" s="3">
         <v>538</v>
       </c>
       <c r="O76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P76" s="3">
         <v>538</v>
       </c>
       <c r="Q76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R76" s="3">
         <v>538</v>
       </c>
       <c r="S76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="U76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W76" s="3">
         <v>538</v>
       </c>
       <c r="X76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y76" s="3">
         <v>538</v>
@@ -29856,31 +30439,31 @@
         <v>538</v>
       </c>
       <c r="AB76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AC76" s="3">
         <v>538</v>
       </c>
       <c r="AD76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF76" s="3">
         <v>538</v>
       </c>
       <c r="AG76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AI76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AJ76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK76" s="3">
         <v>538</v>
@@ -29889,16 +30472,16 @@
         <v>538</v>
       </c>
       <c r="AM76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AN76" s="3">
         <v>538</v>
       </c>
       <c r="AO76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AP76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AQ76" s="3">
         <v>538</v>
@@ -29907,31 +30490,31 @@
         <v>538</v>
       </c>
       <c r="AS76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AT76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AU76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX76" s="3">
         <v>538</v>
       </c>
       <c r="AY76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ76" s="3">
         <v>538</v>
       </c>
       <c r="BA76" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB76" s="3">
         <v>538</v>
@@ -29964,10 +30547,10 @@
         <v>538</v>
       </c>
       <c r="BL76" s="3">
-        <v>180</v>
+        <v>538</v>
       </c>
       <c r="BM76" s="3">
-        <v>538</v>
+        <v>182</v>
       </c>
       <c r="BN76" s="3">
         <v>538</v>
@@ -29976,19 +30559,19 @@
         <v>538</v>
       </c>
       <c r="BP76" s="3">
-        <v>180</v>
+        <v>538</v>
       </c>
       <c r="BQ76" s="3">
-        <v>538</v>
+        <v>182</v>
       </c>
       <c r="BR76" s="3">
         <v>538</v>
       </c>
       <c r="BS76" s="3">
-        <v>180</v>
+        <v>538</v>
       </c>
       <c r="BT76" s="3">
-        <v>538</v>
+        <v>182</v>
       </c>
       <c r="BU76" s="3">
         <v>538</v>
@@ -30036,10 +30619,10 @@
         <v>538</v>
       </c>
       <c r="CJ76" s="3">
-        <v>180</v>
+        <v>538</v>
       </c>
       <c r="CK76" s="3">
-        <v>538</v>
+        <v>182</v>
       </c>
       <c r="CL76" s="3">
         <v>538</v>
@@ -30152,13 +30735,16 @@
       <c r="DV76" s="3">
         <v>538</v>
       </c>
+      <c r="DW76" s="3">
+        <v>538</v>
+      </c>
     </row>
-    <row r="77" ht="14.25">
+    <row r="77" ht="14.25" spans="1:127">
       <c r="A77" s="1">
         <v>275</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C77" s="3">
         <v>523</v>
@@ -30329,7 +30915,7 @@
         <v>141</v>
       </c>
       <c r="BG77" s="3">
-        <v>141</v>
+        <v>523</v>
       </c>
       <c r="BH77" s="3">
         <v>141</v>
@@ -30341,7 +30927,7 @@
         <v>141</v>
       </c>
       <c r="BK77" s="3">
-        <v>523</v>
+        <v>141</v>
       </c>
       <c r="BL77" s="3">
         <v>523</v>
@@ -30392,7 +30978,7 @@
         <v>523</v>
       </c>
       <c r="CB77" s="3">
-        <v>141</v>
+        <v>523</v>
       </c>
       <c r="CC77" s="3">
         <v>141</v>
@@ -30416,7 +31002,7 @@
         <v>141</v>
       </c>
       <c r="CJ77" s="3">
-        <v>523</v>
+        <v>141</v>
       </c>
       <c r="CK77" s="3">
         <v>523</v>
@@ -30440,7 +31026,7 @@
         <v>523</v>
       </c>
       <c r="CR77" s="3">
-        <v>141</v>
+        <v>523</v>
       </c>
       <c r="CS77" s="3">
         <v>141</v>
@@ -30476,7 +31062,7 @@
         <v>141</v>
       </c>
       <c r="DD77" s="3">
-        <v>523</v>
+        <v>141</v>
       </c>
       <c r="DE77" s="3">
         <v>523</v>
@@ -30532,16 +31118,19 @@
       <c r="DV77" s="3">
         <v>523</v>
       </c>
+      <c r="DW77" s="3">
+        <v>523</v>
+      </c>
     </row>
-    <row r="78" ht="14.25">
+    <row r="78" ht="14.25" spans="1:127">
       <c r="A78" s="1">
         <v>276</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D78" s="3">
         <v>539</v>
@@ -30550,7 +31139,7 @@
         <v>539</v>
       </c>
       <c r="F78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G78" s="3">
         <v>539</v>
@@ -30562,10 +31151,10 @@
         <v>539</v>
       </c>
       <c r="J78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L78" s="3">
         <v>143</v>
@@ -30583,28 +31172,28 @@
         <v>539</v>
       </c>
       <c r="Q78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R78" s="3">
         <v>539</v>
       </c>
       <c r="S78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="U78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W78" s="3">
         <v>539</v>
       </c>
       <c r="X78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y78" s="3">
         <v>539</v>
@@ -30616,31 +31205,31 @@
         <v>539</v>
       </c>
       <c r="AB78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AC78" s="3">
         <v>539</v>
       </c>
       <c r="AD78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF78" s="3">
         <v>539</v>
       </c>
       <c r="AG78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AI78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AJ78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK78" s="3">
         <v>539</v>
@@ -30649,16 +31238,16 @@
         <v>539</v>
       </c>
       <c r="AM78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AN78" s="3">
         <v>539</v>
       </c>
       <c r="AO78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AP78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AQ78" s="3">
         <v>539</v>
@@ -30667,31 +31256,31 @@
         <v>539</v>
       </c>
       <c r="AS78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AT78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AU78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX78" s="3">
         <v>539</v>
       </c>
       <c r="AY78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ78" s="3">
         <v>539</v>
       </c>
       <c r="BA78" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB78" s="3">
         <v>539</v>
@@ -30724,10 +31313,10 @@
         <v>539</v>
       </c>
       <c r="BL78" s="3">
-        <v>180</v>
+        <v>539</v>
       </c>
       <c r="BM78" s="3">
-        <v>539</v>
+        <v>182</v>
       </c>
       <c r="BN78" s="3">
         <v>539</v>
@@ -30736,19 +31325,19 @@
         <v>539</v>
       </c>
       <c r="BP78" s="3">
-        <v>180</v>
+        <v>539</v>
       </c>
       <c r="BQ78" s="3">
-        <v>539</v>
+        <v>182</v>
       </c>
       <c r="BR78" s="3">
         <v>539</v>
       </c>
       <c r="BS78" s="3">
-        <v>180</v>
+        <v>539</v>
       </c>
       <c r="BT78" s="3">
-        <v>539</v>
+        <v>182</v>
       </c>
       <c r="BU78" s="3">
         <v>539</v>
@@ -30796,10 +31385,10 @@
         <v>539</v>
       </c>
       <c r="CJ78" s="3">
-        <v>180</v>
+        <v>539</v>
       </c>
       <c r="CK78" s="3">
-        <v>539</v>
+        <v>182</v>
       </c>
       <c r="CL78" s="3">
         <v>539</v>
@@ -30912,13 +31501,16 @@
       <c r="DV78" s="3">
         <v>539</v>
       </c>
+      <c r="DW78" s="3">
+        <v>539</v>
+      </c>
     </row>
-    <row r="79" ht="14.25">
+    <row r="79" ht="14.25" spans="1:127">
       <c r="A79" s="1">
         <v>277</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C79" s="3">
         <v>523</v>
@@ -31089,7 +31681,7 @@
         <v>145</v>
       </c>
       <c r="BG79" s="3">
-        <v>145</v>
+        <v>523</v>
       </c>
       <c r="BH79" s="3">
         <v>145</v>
@@ -31101,7 +31693,7 @@
         <v>145</v>
       </c>
       <c r="BK79" s="3">
-        <v>523</v>
+        <v>145</v>
       </c>
       <c r="BL79" s="3">
         <v>523</v>
@@ -31152,7 +31744,7 @@
         <v>523</v>
       </c>
       <c r="CB79" s="3">
-        <v>145</v>
+        <v>523</v>
       </c>
       <c r="CC79" s="3">
         <v>145</v>
@@ -31176,7 +31768,7 @@
         <v>145</v>
       </c>
       <c r="CJ79" s="3">
-        <v>523</v>
+        <v>145</v>
       </c>
       <c r="CK79" s="3">
         <v>523</v>
@@ -31200,7 +31792,7 @@
         <v>523</v>
       </c>
       <c r="CR79" s="3">
-        <v>145</v>
+        <v>523</v>
       </c>
       <c r="CS79" s="3">
         <v>145</v>
@@ -31236,7 +31828,7 @@
         <v>145</v>
       </c>
       <c r="DD79" s="3">
-        <v>523</v>
+        <v>145</v>
       </c>
       <c r="DE79" s="3">
         <v>523</v>
@@ -31292,16 +31884,19 @@
       <c r="DV79" s="3">
         <v>523</v>
       </c>
+      <c r="DW79" s="3">
+        <v>523</v>
+      </c>
     </row>
-    <row r="80" ht="14.25">
+    <row r="80" ht="14.25" spans="1:127">
       <c r="A80" s="1">
         <v>278</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D80" s="3">
         <v>540</v>
@@ -31310,7 +31905,7 @@
         <v>540</v>
       </c>
       <c r="F80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G80" s="3">
         <v>540</v>
@@ -31322,49 +31917,49 @@
         <v>540</v>
       </c>
       <c r="J80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N80" s="3">
         <v>540</v>
       </c>
       <c r="O80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P80" s="3">
         <v>540</v>
       </c>
       <c r="Q80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R80" s="3">
         <v>540</v>
       </c>
       <c r="S80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="U80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W80" s="3">
         <v>540</v>
       </c>
       <c r="X80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y80" s="3">
         <v>540</v>
@@ -31376,7 +31971,7 @@
         <v>540</v>
       </c>
       <c r="AB80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AC80" s="3">
         <v>540</v>
@@ -31385,7 +31980,7 @@
         <v>146</v>
       </c>
       <c r="AE80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF80" s="3">
         <v>540</v>
@@ -31397,10 +31992,10 @@
         <v>151</v>
       </c>
       <c r="AI80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AJ80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK80" s="3">
         <v>540</v>
@@ -31433,25 +32028,25 @@
         <v>153</v>
       </c>
       <c r="AU80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX80" s="3">
         <v>540</v>
       </c>
       <c r="AY80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ80" s="3">
         <v>540</v>
       </c>
       <c r="BA80" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB80" s="3">
         <v>540</v>
@@ -31484,10 +32079,10 @@
         <v>540</v>
       </c>
       <c r="BL80" s="3">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="BM80" s="3">
-        <v>540</v>
+        <v>182</v>
       </c>
       <c r="BN80" s="3">
         <v>540</v>
@@ -31496,19 +32091,19 @@
         <v>540</v>
       </c>
       <c r="BP80" s="3">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="BQ80" s="3">
-        <v>540</v>
+        <v>182</v>
       </c>
       <c r="BR80" s="3">
         <v>540</v>
       </c>
       <c r="BS80" s="3">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="BT80" s="3">
-        <v>540</v>
+        <v>182</v>
       </c>
       <c r="BU80" s="3">
         <v>540</v>
@@ -31556,10 +32151,10 @@
         <v>540</v>
       </c>
       <c r="CJ80" s="3">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="CK80" s="3">
-        <v>540</v>
+        <v>182</v>
       </c>
       <c r="CL80" s="3">
         <v>540</v>
@@ -31672,13 +32267,16 @@
       <c r="DV80" s="3">
         <v>540</v>
       </c>
+      <c r="DW80" s="3">
+        <v>540</v>
+      </c>
     </row>
-    <row r="81" ht="14.25">
+    <row r="81" ht="14.25" spans="1:127">
       <c r="A81" s="1">
         <v>279</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C81" s="3">
         <v>523</v>
@@ -31849,7 +32447,7 @@
         <v>154</v>
       </c>
       <c r="BG81" s="3">
-        <v>154</v>
+        <v>523</v>
       </c>
       <c r="BH81" s="3">
         <v>154</v>
@@ -31861,7 +32459,7 @@
         <v>154</v>
       </c>
       <c r="BK81" s="3">
-        <v>523</v>
+        <v>154</v>
       </c>
       <c r="BL81" s="3">
         <v>523</v>
@@ -31912,7 +32510,7 @@
         <v>523</v>
       </c>
       <c r="CB81" s="3">
-        <v>154</v>
+        <v>523</v>
       </c>
       <c r="CC81" s="3">
         <v>154</v>
@@ -31936,7 +32534,7 @@
         <v>154</v>
       </c>
       <c r="CJ81" s="3">
-        <v>523</v>
+        <v>154</v>
       </c>
       <c r="CK81" s="3">
         <v>523</v>
@@ -31960,7 +32558,7 @@
         <v>523</v>
       </c>
       <c r="CR81" s="3">
-        <v>154</v>
+        <v>523</v>
       </c>
       <c r="CS81" s="3">
         <v>154</v>
@@ -31996,7 +32594,7 @@
         <v>154</v>
       </c>
       <c r="DD81" s="3">
-        <v>523</v>
+        <v>154</v>
       </c>
       <c r="DE81" s="3">
         <v>523</v>
@@ -32052,13 +32650,16 @@
       <c r="DV81" s="3">
         <v>523</v>
       </c>
+      <c r="DW81" s="3">
+        <v>523</v>
+      </c>
     </row>
-    <row r="82" ht="14.25">
+    <row r="82" ht="14.25" spans="1:127">
       <c r="A82" s="1">
         <v>280</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C82" s="3">
         <v>156</v>
@@ -32082,49 +32683,49 @@
         <v>541</v>
       </c>
       <c r="J82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N82" s="3">
         <v>541</v>
       </c>
       <c r="O82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P82" s="3">
         <v>541</v>
       </c>
       <c r="Q82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R82" s="3">
         <v>541</v>
       </c>
       <c r="S82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="U82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W82" s="3">
         <v>541</v>
       </c>
       <c r="X82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y82" s="3">
         <v>541</v>
@@ -32136,13 +32737,13 @@
         <v>541</v>
       </c>
       <c r="AB82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AC82" s="3">
         <v>541</v>
       </c>
       <c r="AD82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE82" s="3">
         <v>157</v>
@@ -32151,10 +32752,10 @@
         <v>541</v>
       </c>
       <c r="AG82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AI82" s="3">
         <v>158</v>
@@ -32169,16 +32770,16 @@
         <v>541</v>
       </c>
       <c r="AM82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AN82" s="3">
         <v>541</v>
       </c>
       <c r="AO82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AP82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AQ82" s="3">
         <v>541</v>
@@ -32187,31 +32788,31 @@
         <v>541</v>
       </c>
       <c r="AS82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AT82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AU82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX82" s="3">
         <v>541</v>
       </c>
       <c r="AY82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ82" s="3">
         <v>541</v>
       </c>
       <c r="BA82" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB82" s="3">
         <v>541</v>
@@ -32244,10 +32845,10 @@
         <v>541</v>
       </c>
       <c r="BL82" s="3">
-        <v>180</v>
+        <v>541</v>
       </c>
       <c r="BM82" s="3">
-        <v>541</v>
+        <v>182</v>
       </c>
       <c r="BN82" s="3">
         <v>541</v>
@@ -32256,19 +32857,19 @@
         <v>541</v>
       </c>
       <c r="BP82" s="3">
-        <v>180</v>
+        <v>541</v>
       </c>
       <c r="BQ82" s="3">
-        <v>541</v>
+        <v>182</v>
       </c>
       <c r="BR82" s="3">
         <v>541</v>
       </c>
       <c r="BS82" s="3">
-        <v>180</v>
+        <v>541</v>
       </c>
       <c r="BT82" s="3">
-        <v>541</v>
+        <v>182</v>
       </c>
       <c r="BU82" s="3">
         <v>541</v>
@@ -32316,10 +32917,10 @@
         <v>541</v>
       </c>
       <c r="CJ82" s="3">
-        <v>180</v>
+        <v>541</v>
       </c>
       <c r="CK82" s="3">
-        <v>541</v>
+        <v>182</v>
       </c>
       <c r="CL82" s="3">
         <v>541</v>
@@ -32432,13 +33033,16 @@
       <c r="DV82" s="3">
         <v>541</v>
       </c>
+      <c r="DW82" s="3">
+        <v>541</v>
+      </c>
     </row>
-    <row r="83" ht="14.25">
+    <row r="83" ht="14.25" spans="1:127">
       <c r="A83" s="1">
         <v>281</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C83" s="3">
         <v>523</v>
@@ -32609,7 +33213,7 @@
         <v>160</v>
       </c>
       <c r="BG83" s="3">
-        <v>160</v>
+        <v>523</v>
       </c>
       <c r="BH83" s="3">
         <v>160</v>
@@ -32621,7 +33225,7 @@
         <v>160</v>
       </c>
       <c r="BK83" s="3">
-        <v>523</v>
+        <v>160</v>
       </c>
       <c r="BL83" s="3">
         <v>523</v>
@@ -32672,7 +33276,7 @@
         <v>523</v>
       </c>
       <c r="CB83" s="3">
-        <v>160</v>
+        <v>523</v>
       </c>
       <c r="CC83" s="3">
         <v>160</v>
@@ -32696,7 +33300,7 @@
         <v>160</v>
       </c>
       <c r="CJ83" s="3">
-        <v>523</v>
+        <v>160</v>
       </c>
       <c r="CK83" s="3">
         <v>523</v>
@@ -32720,7 +33324,7 @@
         <v>523</v>
       </c>
       <c r="CR83" s="3">
-        <v>160</v>
+        <v>523</v>
       </c>
       <c r="CS83" s="3">
         <v>160</v>
@@ -32756,7 +33360,7 @@
         <v>160</v>
       </c>
       <c r="DD83" s="3">
-        <v>523</v>
+        <v>160</v>
       </c>
       <c r="DE83" s="3">
         <v>523</v>
@@ -32812,16 +33416,19 @@
       <c r="DV83" s="3">
         <v>523</v>
       </c>
+      <c r="DW83" s="3">
+        <v>523</v>
+      </c>
     </row>
-    <row r="84" ht="14.25">
+    <row r="84" ht="14.25" spans="1:127">
       <c r="A84" s="1">
         <v>282</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D84" s="3">
         <v>542</v>
@@ -32830,7 +33437,7 @@
         <v>542</v>
       </c>
       <c r="F84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G84" s="3">
         <v>542</v>
@@ -32842,43 +33449,43 @@
         <v>542</v>
       </c>
       <c r="J84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N84" s="3">
         <v>542</v>
       </c>
       <c r="O84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P84" s="3">
         <v>542</v>
       </c>
       <c r="Q84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R84" s="3">
         <v>542</v>
       </c>
       <c r="S84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="U84" s="3">
         <v>161</v>
       </c>
       <c r="V84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W84" s="3">
         <v>542</v>
@@ -32902,25 +33509,25 @@
         <v>542</v>
       </c>
       <c r="AD84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF84" s="3">
         <v>542</v>
       </c>
       <c r="AG84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AI84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AJ84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK84" s="3">
         <v>542</v>
@@ -32929,16 +33536,16 @@
         <v>542</v>
       </c>
       <c r="AM84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AN84" s="3">
         <v>542</v>
       </c>
       <c r="AO84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AP84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AQ84" s="3">
         <v>542</v>
@@ -32947,31 +33554,31 @@
         <v>542</v>
       </c>
       <c r="AS84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AT84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AU84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX84" s="3">
         <v>542</v>
       </c>
       <c r="AY84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ84" s="3">
         <v>542</v>
       </c>
       <c r="BA84" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB84" s="3">
         <v>542</v>
@@ -33004,10 +33611,10 @@
         <v>542</v>
       </c>
       <c r="BL84" s="3">
-        <v>180</v>
+        <v>542</v>
       </c>
       <c r="BM84" s="3">
-        <v>542</v>
+        <v>182</v>
       </c>
       <c r="BN84" s="3">
         <v>542</v>
@@ -33016,19 +33623,19 @@
         <v>542</v>
       </c>
       <c r="BP84" s="3">
-        <v>180</v>
+        <v>542</v>
       </c>
       <c r="BQ84" s="3">
-        <v>542</v>
+        <v>182</v>
       </c>
       <c r="BR84" s="3">
         <v>542</v>
       </c>
       <c r="BS84" s="3">
-        <v>180</v>
+        <v>542</v>
       </c>
       <c r="BT84" s="3">
-        <v>542</v>
+        <v>182</v>
       </c>
       <c r="BU84" s="3">
         <v>542</v>
@@ -33076,10 +33683,10 @@
         <v>542</v>
       </c>
       <c r="CJ84" s="3">
-        <v>180</v>
+        <v>542</v>
       </c>
       <c r="CK84" s="3">
-        <v>542</v>
+        <v>182</v>
       </c>
       <c r="CL84" s="3">
         <v>542</v>
@@ -33192,13 +33799,16 @@
       <c r="DV84" s="3">
         <v>542</v>
       </c>
+      <c r="DW84" s="3">
+        <v>542</v>
+      </c>
     </row>
-    <row r="85" ht="14.25">
+    <row r="85" ht="14.25" spans="1:127">
       <c r="A85" s="1">
         <v>283</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C85" s="3">
         <v>523</v>
@@ -33369,7 +33979,7 @@
         <v>164</v>
       </c>
       <c r="BG85" s="3">
-        <v>164</v>
+        <v>623</v>
       </c>
       <c r="BH85" s="3">
         <v>164</v>
@@ -33381,7 +33991,7 @@
         <v>164</v>
       </c>
       <c r="BK85" s="3">
-        <v>523</v>
+        <v>164</v>
       </c>
       <c r="BL85" s="3">
         <v>523</v>
@@ -33432,7 +34042,7 @@
         <v>523</v>
       </c>
       <c r="CB85" s="3">
-        <v>164</v>
+        <v>523</v>
       </c>
       <c r="CC85" s="3">
         <v>164</v>
@@ -33456,7 +34066,7 @@
         <v>164</v>
       </c>
       <c r="CJ85" s="3">
-        <v>523</v>
+        <v>164</v>
       </c>
       <c r="CK85" s="3">
         <v>523</v>
@@ -33480,7 +34090,7 @@
         <v>523</v>
       </c>
       <c r="CR85" s="3">
-        <v>164</v>
+        <v>523</v>
       </c>
       <c r="CS85" s="3">
         <v>164</v>
@@ -33516,7 +34126,7 @@
         <v>164</v>
       </c>
       <c r="DD85" s="3">
-        <v>523</v>
+        <v>164</v>
       </c>
       <c r="DE85" s="3">
         <v>523</v>
@@ -33572,16 +34182,19 @@
       <c r="DV85" s="3">
         <v>523</v>
       </c>
+      <c r="DW85" s="3">
+        <v>523</v>
+      </c>
     </row>
-    <row r="86" ht="14.25">
+    <row r="86" ht="14.25" spans="1:127">
       <c r="A86" s="1">
         <v>284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D86" s="3">
         <v>543</v>
@@ -33590,7 +34203,7 @@
         <v>543</v>
       </c>
       <c r="F86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G86" s="3">
         <v>543</v>
@@ -33602,40 +34215,40 @@
         <v>543</v>
       </c>
       <c r="J86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N86" s="3">
         <v>543</v>
       </c>
       <c r="O86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P86" s="3">
         <v>543</v>
       </c>
       <c r="Q86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R86" s="3">
         <v>543</v>
       </c>
       <c r="S86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="U86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V86" s="3">
         <v>165</v>
@@ -33644,7 +34257,7 @@
         <v>543</v>
       </c>
       <c r="X86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y86" s="3">
         <v>543</v>
@@ -33656,31 +34269,31 @@
         <v>543</v>
       </c>
       <c r="AB86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AC86" s="3">
         <v>543</v>
       </c>
       <c r="AD86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF86" s="3">
         <v>543</v>
       </c>
       <c r="AG86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AI86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AJ86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK86" s="3">
         <v>543</v>
@@ -33689,16 +34302,16 @@
         <v>543</v>
       </c>
       <c r="AM86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AN86" s="3">
         <v>543</v>
       </c>
       <c r="AO86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AP86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AQ86" s="3">
         <v>543</v>
@@ -33707,31 +34320,31 @@
         <v>543</v>
       </c>
       <c r="AS86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AT86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AU86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX86" s="3">
         <v>543</v>
       </c>
       <c r="AY86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ86" s="3">
         <v>543</v>
       </c>
       <c r="BA86" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB86" s="3">
         <v>543</v>
@@ -33764,10 +34377,10 @@
         <v>543</v>
       </c>
       <c r="BL86" s="3">
-        <v>180</v>
+        <v>543</v>
       </c>
       <c r="BM86" s="3">
-        <v>543</v>
+        <v>182</v>
       </c>
       <c r="BN86" s="3">
         <v>543</v>
@@ -33776,19 +34389,19 @@
         <v>543</v>
       </c>
       <c r="BP86" s="3">
-        <v>180</v>
+        <v>543</v>
       </c>
       <c r="BQ86" s="3">
-        <v>543</v>
+        <v>182</v>
       </c>
       <c r="BR86" s="3">
         <v>543</v>
       </c>
       <c r="BS86" s="3">
-        <v>180</v>
+        <v>543</v>
       </c>
       <c r="BT86" s="3">
-        <v>543</v>
+        <v>182</v>
       </c>
       <c r="BU86" s="3">
         <v>543</v>
@@ -33836,10 +34449,10 @@
         <v>543</v>
       </c>
       <c r="CJ86" s="3">
-        <v>180</v>
+        <v>543</v>
       </c>
       <c r="CK86" s="3">
-        <v>543</v>
+        <v>182</v>
       </c>
       <c r="CL86" s="3">
         <v>543</v>
@@ -33952,13 +34565,16 @@
       <c r="DV86" s="3">
         <v>543</v>
       </c>
+      <c r="DW86" s="3">
+        <v>543</v>
+      </c>
     </row>
-    <row r="87" ht="14.25">
+    <row r="87" ht="14.25" spans="1:127">
       <c r="A87" s="1">
         <v>285</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C87" s="3">
         <v>523</v>
@@ -34129,10 +34745,10 @@
         <v>166</v>
       </c>
       <c r="BG87" s="3">
+        <v>523</v>
+      </c>
+      <c r="BH87" s="3">
         <v>167</v>
-      </c>
-      <c r="BH87" s="3">
-        <v>166</v>
       </c>
       <c r="BI87" s="3">
         <v>166</v>
@@ -34141,7 +34757,7 @@
         <v>166</v>
       </c>
       <c r="BK87" s="3">
-        <v>523</v>
+        <v>166</v>
       </c>
       <c r="BL87" s="3">
         <v>523</v>
@@ -34192,7 +34808,7 @@
         <v>523</v>
       </c>
       <c r="CB87" s="3">
-        <v>169</v>
+        <v>523</v>
       </c>
       <c r="CC87" s="3">
         <v>169</v>
@@ -34216,7 +34832,7 @@
         <v>169</v>
       </c>
       <c r="CJ87" s="3">
-        <v>523</v>
+        <v>169</v>
       </c>
       <c r="CK87" s="3">
         <v>523</v>
@@ -34240,7 +34856,7 @@
         <v>523</v>
       </c>
       <c r="CR87" s="3">
-        <v>169</v>
+        <v>523</v>
       </c>
       <c r="CS87" s="3">
         <v>169</v>
@@ -34276,7 +34892,7 @@
         <v>169</v>
       </c>
       <c r="DD87" s="3">
-        <v>523</v>
+        <v>169</v>
       </c>
       <c r="DE87" s="3">
         <v>523</v>
@@ -34332,13 +34948,16 @@
       <c r="DV87" s="3">
         <v>523</v>
       </c>
+      <c r="DW87" s="3">
+        <v>523</v>
+      </c>
     </row>
-    <row r="88" ht="14.25">
+    <row r="88" ht="14.25" spans="1:127">
       <c r="A88" s="1">
         <v>286</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C88" s="3">
         <v>545</v>
@@ -34509,10 +35128,10 @@
         <v>545</v>
       </c>
       <c r="BG88" s="3">
-        <v>180</v>
+        <v>545</v>
       </c>
       <c r="BH88" s="3">
-        <v>545</v>
+        <v>182</v>
       </c>
       <c r="BI88" s="3">
         <v>545</v>
@@ -34712,133 +35331,136 @@
       <c r="DV88" s="3">
         <v>545</v>
       </c>
+      <c r="DW88" s="3">
+        <v>545</v>
+      </c>
     </row>
-    <row r="89" ht="14.25">
+    <row r="89" ht="14.25" spans="1:127">
       <c r="A89" s="1">
         <v>287</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D89" s="3">
         <v>546</v>
       </c>
       <c r="E89" s="3">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="F89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G89" s="3">
         <v>546</v>
       </c>
       <c r="H89" s="3">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="I89" s="3">
         <v>546</v>
       </c>
       <c r="J89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N89" s="3">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="O89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P89" s="3">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="Q89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R89" s="3">
         <v>546</v>
       </c>
       <c r="S89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="U89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W89" s="3">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="X89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y89" s="3">
         <v>546</v>
       </c>
       <c r="Z89" s="3">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="AA89" s="3">
         <v>546</v>
       </c>
       <c r="AB89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AC89" s="3">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="AD89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF89" s="3">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="AG89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AI89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AJ89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK89" s="3">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="AL89" s="3">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="AM89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AN89" s="3">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="AO89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AP89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AQ89" s="3">
         <v>546</v>
@@ -34847,31 +35469,31 @@
         <v>546</v>
       </c>
       <c r="AS89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AT89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AU89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX89" s="3">
         <v>172</v>
       </c>
       <c r="AY89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ89" s="3">
         <v>173</v>
       </c>
       <c r="BA89" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB89" s="3">
         <v>546</v>
@@ -34904,10 +35526,10 @@
         <v>546</v>
       </c>
       <c r="BL89" s="3">
-        <v>180</v>
+        <v>546</v>
       </c>
       <c r="BM89" s="3">
-        <v>546</v>
+        <v>182</v>
       </c>
       <c r="BN89" s="3">
         <v>546</v>
@@ -34916,19 +35538,19 @@
         <v>546</v>
       </c>
       <c r="BP89" s="3">
-        <v>180</v>
+        <v>546</v>
       </c>
       <c r="BQ89" s="3">
-        <v>546</v>
+        <v>182</v>
       </c>
       <c r="BR89" s="3">
         <v>546</v>
       </c>
       <c r="BS89" s="3">
-        <v>180</v>
+        <v>546</v>
       </c>
       <c r="BT89" s="3">
-        <v>546</v>
+        <v>182</v>
       </c>
       <c r="BU89" s="3">
         <v>546</v>
@@ -34976,10 +35598,10 @@
         <v>546</v>
       </c>
       <c r="CJ89" s="3">
-        <v>180</v>
+        <v>546</v>
       </c>
       <c r="CK89" s="3">
-        <v>546</v>
+        <v>182</v>
       </c>
       <c r="CL89" s="3">
         <v>546</v>
@@ -35092,16 +35714,19 @@
       <c r="DV89" s="3">
         <v>546</v>
       </c>
+      <c r="DW89" s="3">
+        <v>546</v>
+      </c>
     </row>
-    <row r="90" ht="14.25">
+    <row r="90" ht="14.25" spans="1:127">
       <c r="A90" s="1">
         <v>288</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D90" s="3">
         <v>527</v>
@@ -35110,7 +35735,7 @@
         <v>174</v>
       </c>
       <c r="F90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G90" s="3">
         <v>527</v>
@@ -35122,49 +35747,49 @@
         <v>527</v>
       </c>
       <c r="J90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N90" s="3">
         <v>174</v>
       </c>
       <c r="O90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P90" s="3">
         <v>174</v>
       </c>
       <c r="Q90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R90" s="3">
         <v>527</v>
       </c>
       <c r="S90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="U90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W90" s="3">
         <v>174</v>
       </c>
       <c r="X90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y90" s="3">
         <v>527</v>
@@ -35176,31 +35801,31 @@
         <v>527</v>
       </c>
       <c r="AB90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AC90" s="3">
         <v>174</v>
       </c>
       <c r="AD90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF90" s="3">
         <v>174</v>
       </c>
       <c r="AG90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AI90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AJ90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK90" s="3">
         <v>174</v>
@@ -35209,16 +35834,16 @@
         <v>174</v>
       </c>
       <c r="AM90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AN90" s="3">
         <v>174</v>
       </c>
       <c r="AO90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AP90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AQ90" s="3">
         <v>527</v>
@@ -35227,31 +35852,31 @@
         <v>527</v>
       </c>
       <c r="AS90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AT90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AU90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX90" s="3">
         <v>527</v>
       </c>
       <c r="AY90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ90" s="3">
         <v>527</v>
       </c>
       <c r="BA90" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB90" s="3">
         <v>527</v>
@@ -35284,10 +35909,10 @@
         <v>527</v>
       </c>
       <c r="BL90" s="3">
-        <v>180</v>
+        <v>527</v>
       </c>
       <c r="BM90" s="3">
-        <v>527</v>
+        <v>182</v>
       </c>
       <c r="BN90" s="3">
         <v>527</v>
@@ -35296,19 +35921,19 @@
         <v>527</v>
       </c>
       <c r="BP90" s="3">
-        <v>180</v>
+        <v>527</v>
       </c>
       <c r="BQ90" s="3">
-        <v>527</v>
+        <v>182</v>
       </c>
       <c r="BR90" s="3">
         <v>527</v>
       </c>
       <c r="BS90" s="3">
-        <v>180</v>
+        <v>527</v>
       </c>
       <c r="BT90" s="3">
-        <v>527</v>
+        <v>182</v>
       </c>
       <c r="BU90" s="3">
         <v>527</v>
@@ -35356,10 +35981,10 @@
         <v>527</v>
       </c>
       <c r="CJ90" s="3">
-        <v>180</v>
+        <v>527</v>
       </c>
       <c r="CK90" s="3">
-        <v>527</v>
+        <v>182</v>
       </c>
       <c r="CL90" s="3">
         <v>527</v>
@@ -35472,16 +36097,19 @@
       <c r="DV90" s="3">
         <v>527</v>
       </c>
+      <c r="DW90" s="3">
+        <v>527</v>
+      </c>
     </row>
-    <row r="91" ht="14.25">
+    <row r="91" ht="14.25" spans="1:127">
       <c r="A91" s="1">
         <v>289</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D91" s="3">
         <v>547</v>
@@ -35490,7 +36118,7 @@
         <v>547</v>
       </c>
       <c r="F91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G91" s="3">
         <v>547</v>
@@ -35502,49 +36130,49 @@
         <v>547</v>
       </c>
       <c r="J91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N91" s="3">
         <v>547</v>
       </c>
       <c r="O91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P91" s="3">
         <v>547</v>
       </c>
       <c r="Q91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R91" s="3">
         <v>547</v>
       </c>
       <c r="S91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="U91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W91" s="3">
         <v>547</v>
       </c>
       <c r="X91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Y91" s="3">
         <v>547</v>
@@ -35556,31 +36184,31 @@
         <v>547</v>
       </c>
       <c r="AB91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AC91" s="3">
         <v>547</v>
       </c>
       <c r="AD91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF91" s="3">
         <v>547</v>
       </c>
       <c r="AG91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AI91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AJ91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK91" s="3">
         <v>547</v>
@@ -35589,16 +36217,16 @@
         <v>547</v>
       </c>
       <c r="AM91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AN91" s="3">
         <v>547</v>
       </c>
       <c r="AO91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AP91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AQ91" s="3">
         <v>547</v>
@@ -35607,31 +36235,31 @@
         <v>547</v>
       </c>
       <c r="AS91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AT91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AU91" s="3">
         <v>175</v>
       </c>
       <c r="AV91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AW91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AX91" s="3">
         <v>547</v>
       </c>
       <c r="AY91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ91" s="3">
         <v>547</v>
       </c>
       <c r="BA91" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB91" s="3">
         <v>547</v>
@@ -35664,10 +36292,10 @@
         <v>547</v>
       </c>
       <c r="BL91" s="3">
-        <v>180</v>
+        <v>547</v>
       </c>
       <c r="BM91" s="3">
-        <v>547</v>
+        <v>182</v>
       </c>
       <c r="BN91" s="3">
         <v>547</v>
@@ -35676,19 +36304,19 @@
         <v>547</v>
       </c>
       <c r="BP91" s="3">
-        <v>180</v>
+        <v>547</v>
       </c>
       <c r="BQ91" s="3">
-        <v>547</v>
+        <v>182</v>
       </c>
       <c r="BR91" s="3">
         <v>547</v>
       </c>
       <c r="BS91" s="3">
-        <v>180</v>
+        <v>547</v>
       </c>
       <c r="BT91" s="3">
-        <v>547</v>
+        <v>182</v>
       </c>
       <c r="BU91" s="3">
         <v>547</v>
@@ -35736,10 +36364,10 @@
         <v>547</v>
       </c>
       <c r="CJ91" s="3">
-        <v>180</v>
+        <v>547</v>
       </c>
       <c r="CK91" s="3">
-        <v>547</v>
+        <v>182</v>
       </c>
       <c r="CL91" s="3">
         <v>547</v>
@@ -35852,13 +36480,16 @@
       <c r="DV91" s="3">
         <v>547</v>
       </c>
+      <c r="DW91" s="3">
+        <v>547</v>
+      </c>
     </row>
-    <row r="92" ht="14.25">
+    <row r="92" ht="14.25" spans="1:127">
       <c r="A92" s="1">
         <v>290</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C92" s="3">
         <v>523</v>
@@ -36011,7 +36642,7 @@
         <v>176</v>
       </c>
       <c r="BA92" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB92" s="3">
         <v>176</v>
@@ -36029,7 +36660,7 @@
         <v>176</v>
       </c>
       <c r="BG92" s="3">
-        <v>176</v>
+        <v>523</v>
       </c>
       <c r="BH92" s="3">
         <v>176</v>
@@ -36041,7 +36672,7 @@
         <v>176</v>
       </c>
       <c r="BK92" s="3">
-        <v>523</v>
+        <v>176</v>
       </c>
       <c r="BL92" s="3">
         <v>523</v>
@@ -36092,7 +36723,7 @@
         <v>523</v>
       </c>
       <c r="CB92" s="3">
-        <v>176</v>
+        <v>523</v>
       </c>
       <c r="CC92" s="3">
         <v>176</v>
@@ -36116,7 +36747,7 @@
         <v>176</v>
       </c>
       <c r="CJ92" s="3">
-        <v>523</v>
+        <v>176</v>
       </c>
       <c r="CK92" s="3">
         <v>523</v>
@@ -36140,7 +36771,7 @@
         <v>523</v>
       </c>
       <c r="CR92" s="3">
-        <v>176</v>
+        <v>523</v>
       </c>
       <c r="CS92" s="3">
         <v>176</v>
@@ -36167,16 +36798,16 @@
         <v>176</v>
       </c>
       <c r="DA92" s="3">
+        <v>176</v>
+      </c>
+      <c r="DB92" s="3">
         <v>154</v>
-      </c>
-      <c r="DB92" s="3">
-        <v>176</v>
       </c>
       <c r="DC92" s="3">
         <v>176</v>
       </c>
       <c r="DD92" s="3">
-        <v>523</v>
+        <v>176</v>
       </c>
       <c r="DE92" s="3">
         <v>523</v>
@@ -36232,13 +36863,16 @@
       <c r="DV92" s="3">
         <v>523</v>
       </c>
+      <c r="DW92" s="3">
+        <v>523</v>
+      </c>
     </row>
-    <row r="93" ht="14.25">
+    <row r="93" ht="14.25" spans="1:127">
       <c r="A93" s="1">
         <v>291</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C93" s="3">
         <v>510</v>
@@ -36391,7 +37025,7 @@
         <v>510</v>
       </c>
       <c r="BA93" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BB93" s="3">
         <v>510</v>
@@ -36612,13 +37246,16 @@
       <c r="DV93" s="3">
         <v>510</v>
       </c>
+      <c r="DW93" s="3">
+        <v>510</v>
+      </c>
     </row>
-    <row r="94" ht="14.25">
+    <row r="94" ht="14.25" spans="1:127">
       <c r="A94" s="1">
         <v>292</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" s="3">
         <v>548</v>
@@ -36768,7 +37405,7 @@
         <v>548</v>
       </c>
       <c r="AZ94" s="3">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BA94" s="3">
         <v>548</v>
@@ -36992,8 +37629,11 @@
       <c r="DV94" s="3">
         <v>548</v>
       </c>
+      <c r="DW94" s="3">
+        <v>548</v>
+      </c>
     </row>
-    <row r="95" ht="15">
+    <row r="95" spans="2:110">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -37102,8 +37742,9 @@
       <c r="DC95" s="4"/>
       <c r="DD95" s="4"/>
       <c r="DE95" s="4"/>
+      <c r="DF95" s="4"/>
     </row>
-    <row r="96" ht="15">
+    <row r="96" spans="2:110">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -37212,8 +37853,9 @@
       <c r="DC96" s="4"/>
       <c r="DD96" s="4"/>
       <c r="DE96" s="4"/>
+      <c r="DF96" s="4"/>
     </row>
-    <row r="97" ht="15">
+    <row r="97" spans="2:110">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -37322,8 +37964,9 @@
       <c r="DC97" s="4"/>
       <c r="DD97" s="4"/>
       <c r="DE97" s="4"/>
+      <c r="DF97" s="4"/>
     </row>
-    <row r="98" ht="15">
+    <row r="98" spans="2:110">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -37432,8 +38075,9 @@
       <c r="DC98" s="4"/>
       <c r="DD98" s="4"/>
       <c r="DE98" s="4"/>
+      <c r="DF98" s="4"/>
     </row>
-    <row r="99" ht="15">
+    <row r="99" spans="2:110">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -37542,8 +38186,9 @@
       <c r="DC99" s="4"/>
       <c r="DD99" s="4"/>
       <c r="DE99" s="4"/>
+      <c r="DF99" s="4"/>
     </row>
-    <row r="100" ht="15">
+    <row r="100" spans="2:110">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -37652,8 +38297,9 @@
       <c r="DC100" s="4"/>
       <c r="DD100" s="4"/>
       <c r="DE100" s="4"/>
+      <c r="DF100" s="4"/>
     </row>
-    <row r="101" ht="15">
+    <row r="101" spans="2:110">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -37762,8 +38408,9 @@
       <c r="DC101" s="4"/>
       <c r="DD101" s="4"/>
       <c r="DE101" s="4"/>
+      <c r="DF101" s="4"/>
     </row>
-    <row r="102" ht="15">
+    <row r="102" spans="2:110">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -37872,8 +38519,9 @@
       <c r="DC102" s="4"/>
       <c r="DD102" s="4"/>
       <c r="DE102" s="4"/>
+      <c r="DF102" s="4"/>
     </row>
-    <row r="103" ht="15">
+    <row r="103" spans="2:110">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -37982,8 +38630,9 @@
       <c r="DC103" s="4"/>
       <c r="DD103" s="4"/>
       <c r="DE103" s="4"/>
+      <c r="DF103" s="4"/>
     </row>
-    <row r="104" ht="15">
+    <row r="104" spans="2:110">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -38092,8 +38741,9 @@
       <c r="DC104" s="4"/>
       <c r="DD104" s="4"/>
       <c r="DE104" s="4"/>
+      <c r="DF104" s="4"/>
     </row>
-    <row r="105" ht="15">
+    <row r="105" spans="2:110">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -38202,8 +38852,9 @@
       <c r="DC105" s="4"/>
       <c r="DD105" s="4"/>
       <c r="DE105" s="4"/>
+      <c r="DF105" s="4"/>
     </row>
-    <row r="106" ht="15">
+    <row r="106" spans="2:110">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -38312,8 +38963,9 @@
       <c r="DC106" s="4"/>
       <c r="DD106" s="4"/>
       <c r="DE106" s="4"/>
+      <c r="DF106" s="4"/>
     </row>
-    <row r="107" ht="15">
+    <row r="107" spans="2:109">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -38421,8 +39073,9 @@
       <c r="DB107" s="4"/>
       <c r="DC107" s="4"/>
       <c r="DD107" s="4"/>
+      <c r="DE107" s="4"/>
     </row>
-    <row r="108" ht="15">
+    <row r="108" spans="2:109">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -38530,8 +39183,9 @@
       <c r="DB108" s="4"/>
       <c r="DC108" s="4"/>
       <c r="DD108" s="4"/>
+      <c r="DE108" s="4"/>
     </row>
-    <row r="109" ht="15">
+    <row r="109" spans="2:109">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -38639,8 +39293,9 @@
       <c r="DB109" s="4"/>
       <c r="DC109" s="4"/>
       <c r="DD109" s="4"/>
+      <c r="DE109" s="4"/>
     </row>
-    <row r="110" ht="15">
+    <row r="110" spans="2:109">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -38748,8 +39403,9 @@
       <c r="DB110" s="4"/>
       <c r="DC110" s="4"/>
       <c r="DD110" s="4"/>
+      <c r="DE110" s="4"/>
     </row>
-    <row r="111" ht="15">
+    <row r="111" spans="2:109">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -38857,8 +39513,9 @@
       <c r="DB111" s="4"/>
       <c r="DC111" s="4"/>
       <c r="DD111" s="4"/>
+      <c r="DE111" s="4"/>
     </row>
-    <row r="112" ht="15">
+    <row r="112" spans="1:109">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -38967,8 +39624,9 @@
       <c r="DB112" s="4"/>
       <c r="DC112" s="4"/>
       <c r="DD112" s="4"/>
+      <c r="DE112" s="4"/>
     </row>
-    <row r="113" ht="15">
+    <row r="113" spans="1:109">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -39077,8 +39735,9 @@
       <c r="DB113" s="4"/>
       <c r="DC113" s="4"/>
       <c r="DD113" s="4"/>
+      <c r="DE113" s="4"/>
     </row>
-    <row r="114" ht="15">
+    <row r="114" spans="1:109">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -39187,8 +39846,9 @@
       <c r="DB114" s="4"/>
       <c r="DC114" s="4"/>
       <c r="DD114" s="4"/>
+      <c r="DE114" s="4"/>
     </row>
-    <row r="115" ht="15">
+    <row r="115" spans="1:109">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -39297,8 +39957,9 @@
       <c r="DB115" s="4"/>
       <c r="DC115" s="4"/>
       <c r="DD115" s="4"/>
+      <c r="DE115" s="4"/>
     </row>
-    <row r="116" ht="15">
+    <row r="116" spans="1:109">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -39407,8 +40068,9 @@
       <c r="DB116" s="4"/>
       <c r="DC116" s="4"/>
       <c r="DD116" s="4"/>
+      <c r="DE116" s="4"/>
     </row>
-    <row r="117" ht="15">
+    <row r="117" spans="1:109">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -39517,8 +40179,9 @@
       <c r="DB117" s="4"/>
       <c r="DC117" s="4"/>
       <c r="DD117" s="4"/>
+      <c r="DE117" s="4"/>
     </row>
-    <row r="118" ht="15">
+    <row r="118" spans="1:109">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -39627,8 +40290,9 @@
       <c r="DB118" s="4"/>
       <c r="DC118" s="4"/>
       <c r="DD118" s="4"/>
+      <c r="DE118" s="4"/>
     </row>
-    <row r="119" ht="15">
+    <row r="119" spans="1:109">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -39737,8 +40401,9 @@
       <c r="DB119" s="4"/>
       <c r="DC119" s="4"/>
       <c r="DD119" s="4"/>
+      <c r="DE119" s="4"/>
     </row>
-    <row r="120" ht="15">
+    <row r="120" spans="1:109">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -39847,8 +40512,9 @@
       <c r="DB120" s="4"/>
       <c r="DC120" s="4"/>
       <c r="DD120" s="4"/>
+      <c r="DE120" s="4"/>
     </row>
-    <row r="121" ht="15">
+    <row r="121" spans="1:109">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -39957,8 +40623,9 @@
       <c r="DB121" s="4"/>
       <c r="DC121" s="4"/>
       <c r="DD121" s="4"/>
+      <c r="DE121" s="4"/>
     </row>
-    <row r="122" ht="15">
+    <row r="122" spans="1:109">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -40067,8 +40734,9 @@
       <c r="DB122" s="4"/>
       <c r="DC122" s="4"/>
       <c r="DD122" s="4"/>
+      <c r="DE122" s="4"/>
     </row>
-    <row r="123" ht="15">
+    <row r="123" spans="1:109">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -40177,8 +40845,9 @@
       <c r="DB123" s="4"/>
       <c r="DC123" s="4"/>
       <c r="DD123" s="4"/>
+      <c r="DE123" s="4"/>
     </row>
-    <row r="124" ht="15">
+    <row r="124" spans="1:109">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -40287,8 +40956,9 @@
       <c r="DB124" s="4"/>
       <c r="DC124" s="4"/>
       <c r="DD124" s="4"/>
+      <c r="DE124" s="4"/>
     </row>
-    <row r="125" ht="15">
+    <row r="125" spans="1:109">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -40397,8 +41067,9 @@
       <c r="DB125" s="4"/>
       <c r="DC125" s="4"/>
       <c r="DD125" s="4"/>
+      <c r="DE125" s="4"/>
     </row>
-    <row r="126" ht="15">
+    <row r="126" spans="1:109">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -40507,8 +41178,9 @@
       <c r="DB126" s="4"/>
       <c r="DC126" s="4"/>
       <c r="DD126" s="4"/>
+      <c r="DE126" s="4"/>
     </row>
-    <row r="127" ht="15">
+    <row r="127" spans="1:109">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -40617,8 +41289,9 @@
       <c r="DB127" s="4"/>
       <c r="DC127" s="4"/>
       <c r="DD127" s="4"/>
+      <c r="DE127" s="4"/>
     </row>
-    <row r="128" ht="15">
+    <row r="128" spans="1:109">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -40727,8 +41400,9 @@
       <c r="DB128" s="4"/>
       <c r="DC128" s="4"/>
       <c r="DD128" s="4"/>
+      <c r="DE128" s="4"/>
     </row>
-    <row r="129" ht="15">
+    <row r="129" spans="1:109">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -40837,8 +41511,9 @@
       <c r="DB129" s="4"/>
       <c r="DC129" s="4"/>
       <c r="DD129" s="4"/>
+      <c r="DE129" s="4"/>
     </row>
-    <row r="130" ht="15">
+    <row r="130" spans="1:109">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -40947,8 +41622,9 @@
       <c r="DB130" s="4"/>
       <c r="DC130" s="4"/>
       <c r="DD130" s="4"/>
+      <c r="DE130" s="4"/>
     </row>
-    <row r="131" ht="15">
+    <row r="131" spans="1:109">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -41057,8 +41733,9 @@
       <c r="DB131" s="4"/>
       <c r="DC131" s="4"/>
       <c r="DD131" s="4"/>
+      <c r="DE131" s="4"/>
     </row>
-    <row r="132" ht="15">
+    <row r="132" spans="1:109">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -41167,8 +41844,9 @@
       <c r="DB132" s="4"/>
       <c r="DC132" s="4"/>
       <c r="DD132" s="4"/>
+      <c r="DE132" s="4"/>
     </row>
-    <row r="133" ht="15">
+    <row r="133" spans="1:109">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -41277,8 +41955,9 @@
       <c r="DB133" s="4"/>
       <c r="DC133" s="4"/>
       <c r="DD133" s="4"/>
+      <c r="DE133" s="4"/>
     </row>
-    <row r="134" ht="15">
+    <row r="134" spans="1:109">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -41387,8 +42066,9 @@
       <c r="DB134" s="4"/>
       <c r="DC134" s="4"/>
       <c r="DD134" s="4"/>
+      <c r="DE134" s="4"/>
     </row>
-    <row r="135" ht="15">
+    <row r="135" spans="1:109">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -41497,8 +42177,9 @@
       <c r="DB135" s="4"/>
       <c r="DC135" s="4"/>
       <c r="DD135" s="4"/>
+      <c r="DE135" s="4"/>
     </row>
-    <row r="136" ht="15">
+    <row r="136" spans="1:109">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -41607,8 +42288,9 @@
       <c r="DB136" s="4"/>
       <c r="DC136" s="4"/>
       <c r="DD136" s="4"/>
+      <c r="DE136" s="4"/>
     </row>
-    <row r="137" ht="15">
+    <row r="137" spans="1:109">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -41717,8 +42399,9 @@
       <c r="DB137" s="4"/>
       <c r="DC137" s="4"/>
       <c r="DD137" s="4"/>
+      <c r="DE137" s="4"/>
     </row>
-    <row r="138" ht="15">
+    <row r="138" spans="1:109">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -41827,8 +42510,9 @@
       <c r="DB138" s="4"/>
       <c r="DC138" s="4"/>
       <c r="DD138" s="4"/>
+      <c r="DE138" s="4"/>
     </row>
-    <row r="139" ht="15">
+    <row r="139" spans="1:109">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -41937,8 +42621,9 @@
       <c r="DB139" s="4"/>
       <c r="DC139" s="4"/>
       <c r="DD139" s="4"/>
+      <c r="DE139" s="4"/>
     </row>
-    <row r="140" ht="15">
+    <row r="140" spans="1:109">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -42047,8 +42732,9 @@
       <c r="DB140" s="4"/>
       <c r="DC140" s="4"/>
       <c r="DD140" s="4"/>
+      <c r="DE140" s="4"/>
     </row>
-    <row r="141" ht="15">
+    <row r="141" spans="1:109">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -42157,8 +42843,9 @@
       <c r="DB141" s="4"/>
       <c r="DC141" s="4"/>
       <c r="DD141" s="4"/>
+      <c r="DE141" s="4"/>
     </row>
-    <row r="142" ht="15">
+    <row r="142" spans="1:109">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -42267,8 +42954,9 @@
       <c r="DB142" s="4"/>
       <c r="DC142" s="4"/>
       <c r="DD142" s="4"/>
+      <c r="DE142" s="4"/>
     </row>
-    <row r="143" ht="15">
+    <row r="143" spans="1:109">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -42377,8 +43065,9 @@
       <c r="DB143" s="4"/>
       <c r="DC143" s="4"/>
       <c r="DD143" s="4"/>
+      <c r="DE143" s="4"/>
     </row>
-    <row r="144" ht="15">
+    <row r="144" spans="1:109">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -42487,8 +43176,9 @@
       <c r="DB144" s="4"/>
       <c r="DC144" s="4"/>
       <c r="DD144" s="4"/>
+      <c r="DE144" s="4"/>
     </row>
-    <row r="145" ht="15">
+    <row r="145" spans="1:109">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -42597,8 +43287,9 @@
       <c r="DB145" s="4"/>
       <c r="DC145" s="4"/>
       <c r="DD145" s="4"/>
+      <c r="DE145" s="4"/>
     </row>
-    <row r="146" ht="15">
+    <row r="146" spans="1:109">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -42707,8 +43398,9 @@
       <c r="DB146" s="4"/>
       <c r="DC146" s="4"/>
       <c r="DD146" s="4"/>
+      <c r="DE146" s="4"/>
     </row>
-    <row r="147" ht="15">
+    <row r="147" spans="1:109">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -42817,8 +43509,9 @@
       <c r="DB147" s="4"/>
       <c r="DC147" s="4"/>
       <c r="DD147" s="4"/>
+      <c r="DE147" s="4"/>
     </row>
-    <row r="148" ht="15">
+    <row r="148" spans="1:109">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -42927,8 +43620,9 @@
       <c r="DB148" s="4"/>
       <c r="DC148" s="4"/>
       <c r="DD148" s="4"/>
+      <c r="DE148" s="4"/>
     </row>
-    <row r="149" ht="15">
+    <row r="149" spans="1:109">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -43037,8 +43731,9 @@
       <c r="DB149" s="4"/>
       <c r="DC149" s="4"/>
       <c r="DD149" s="4"/>
+      <c r="DE149" s="4"/>
     </row>
-    <row r="150" ht="15">
+    <row r="150" spans="1:109">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -43147,8 +43842,9 @@
       <c r="DB150" s="4"/>
       <c r="DC150" s="4"/>
       <c r="DD150" s="4"/>
+      <c r="DE150" s="4"/>
     </row>
-    <row r="151" ht="15">
+    <row r="151" spans="1:109">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -43257,8 +43953,9 @@
       <c r="DB151" s="4"/>
       <c r="DC151" s="4"/>
       <c r="DD151" s="4"/>
+      <c r="DE151" s="4"/>
     </row>
-    <row r="152" ht="15">
+    <row r="152" spans="1:109">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -43367,8 +44064,9 @@
       <c r="DB152" s="4"/>
       <c r="DC152" s="4"/>
       <c r="DD152" s="4"/>
+      <c r="DE152" s="4"/>
     </row>
-    <row r="153" ht="15">
+    <row r="153" spans="1:109">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -43477,8 +44175,9 @@
       <c r="DB153" s="4"/>
       <c r="DC153" s="4"/>
       <c r="DD153" s="4"/>
+      <c r="DE153" s="4"/>
     </row>
-    <row r="154" ht="15">
+    <row r="154" spans="1:109">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -43587,8 +44286,9 @@
       <c r="DB154" s="4"/>
       <c r="DC154" s="4"/>
       <c r="DD154" s="4"/>
+      <c r="DE154" s="4"/>
     </row>
-    <row r="155" ht="15">
+    <row r="155" spans="1:109">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -43697,8 +44397,9 @@
       <c r="DB155" s="4"/>
       <c r="DC155" s="4"/>
       <c r="DD155" s="4"/>
+      <c r="DE155" s="4"/>
     </row>
-    <row r="156" ht="15">
+    <row r="156" spans="1:109">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -43807,8 +44508,9 @@
       <c r="DB156" s="4"/>
       <c r="DC156" s="4"/>
       <c r="DD156" s="4"/>
+      <c r="DE156" s="4"/>
     </row>
-    <row r="157" ht="15">
+    <row r="157" spans="1:109">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -43917,8 +44619,9 @@
       <c r="DB157" s="4"/>
       <c r="DC157" s="4"/>
       <c r="DD157" s="4"/>
+      <c r="DE157" s="4"/>
     </row>
-    <row r="158" ht="15">
+    <row r="158" spans="1:109">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -44027,8 +44730,9 @@
       <c r="DB158" s="4"/>
       <c r="DC158" s="4"/>
       <c r="DD158" s="4"/>
+      <c r="DE158" s="4"/>
     </row>
-    <row r="159" ht="15">
+    <row r="159" spans="1:109">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -44137,8 +44841,9 @@
       <c r="DB159" s="4"/>
       <c r="DC159" s="4"/>
       <c r="DD159" s="4"/>
+      <c r="DE159" s="4"/>
     </row>
-    <row r="160" ht="15">
+    <row r="160" spans="1:109">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -44247,8 +44952,9 @@
       <c r="DB160" s="4"/>
       <c r="DC160" s="4"/>
       <c r="DD160" s="4"/>
+      <c r="DE160" s="4"/>
     </row>
-    <row r="161" ht="15">
+    <row r="161" spans="1:109">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -44357,8 +45063,9 @@
       <c r="DB161" s="4"/>
       <c r="DC161" s="4"/>
       <c r="DD161" s="4"/>
+      <c r="DE161" s="4"/>
     </row>
-    <row r="162" ht="15">
+    <row r="162" spans="1:109">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -44467,8 +45174,9 @@
       <c r="DB162" s="4"/>
       <c r="DC162" s="4"/>
       <c r="DD162" s="4"/>
+      <c r="DE162" s="4"/>
     </row>
-    <row r="163" ht="15">
+    <row r="163" spans="1:109">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -44577,8 +45285,9 @@
       <c r="DB163" s="4"/>
       <c r="DC163" s="4"/>
       <c r="DD163" s="4"/>
+      <c r="DE163" s="4"/>
     </row>
-    <row r="164" ht="15">
+    <row r="164" spans="1:109">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -44687,8 +45396,9 @@
       <c r="DB164" s="4"/>
       <c r="DC164" s="4"/>
       <c r="DD164" s="4"/>
+      <c r="DE164" s="4"/>
     </row>
-    <row r="165" ht="15">
+    <row r="165" spans="1:109">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -44797,8 +45507,9 @@
       <c r="DB165" s="4"/>
       <c r="DC165" s="4"/>
       <c r="DD165" s="4"/>
+      <c r="DE165" s="4"/>
     </row>
-    <row r="166" ht="15">
+    <row r="166" spans="1:109">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -44907,8 +45618,9 @@
       <c r="DB166" s="4"/>
       <c r="DC166" s="4"/>
       <c r="DD166" s="4"/>
+      <c r="DE166" s="4"/>
     </row>
-    <row r="167" ht="15">
+    <row r="167" spans="1:109">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -45017,8 +45729,9 @@
       <c r="DB167" s="4"/>
       <c r="DC167" s="4"/>
       <c r="DD167" s="4"/>
+      <c r="DE167" s="4"/>
     </row>
-    <row r="168" ht="15">
+    <row r="168" spans="1:109">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -45127,8 +45840,9 @@
       <c r="DB168" s="4"/>
       <c r="DC168" s="4"/>
       <c r="DD168" s="4"/>
+      <c r="DE168" s="4"/>
     </row>
-    <row r="169" ht="15">
+    <row r="169" spans="1:109">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -45237,8 +45951,9 @@
       <c r="DB169" s="4"/>
       <c r="DC169" s="4"/>
       <c r="DD169" s="4"/>
+      <c r="DE169" s="4"/>
     </row>
-    <row r="170" ht="15">
+    <row r="170" spans="1:109">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -45347,8 +46062,9 @@
       <c r="DB170" s="4"/>
       <c r="DC170" s="4"/>
       <c r="DD170" s="4"/>
+      <c r="DE170" s="4"/>
     </row>
-    <row r="171" ht="15">
+    <row r="171" spans="1:109">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -45457,8 +46173,9 @@
       <c r="DB171" s="4"/>
       <c r="DC171" s="4"/>
       <c r="DD171" s="4"/>
+      <c r="DE171" s="4"/>
     </row>
-    <row r="172" ht="15">
+    <row r="172" spans="1:109">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -45567,8 +46284,9 @@
       <c r="DB172" s="4"/>
       <c r="DC172" s="4"/>
       <c r="DD172" s="4"/>
+      <c r="DE172" s="4"/>
     </row>
-    <row r="173" ht="15">
+    <row r="173" spans="1:109">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -45677,8 +46395,9 @@
       <c r="DB173" s="4"/>
       <c r="DC173" s="4"/>
       <c r="DD173" s="4"/>
+      <c r="DE173" s="4"/>
     </row>
-    <row r="174" ht="15">
+    <row r="174" spans="1:109">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -45787,8 +46506,9 @@
       <c r="DB174" s="4"/>
       <c r="DC174" s="4"/>
       <c r="DD174" s="4"/>
+      <c r="DE174" s="4"/>
     </row>
-    <row r="175" ht="15">
+    <row r="175" spans="1:109">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -45897,8 +46617,9 @@
       <c r="DB175" s="4"/>
       <c r="DC175" s="4"/>
       <c r="DD175" s="4"/>
+      <c r="DE175" s="4"/>
     </row>
-    <row r="176" ht="15">
+    <row r="176" spans="1:109">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -46007,8 +46728,9 @@
       <c r="DB176" s="4"/>
       <c r="DC176" s="4"/>
       <c r="DD176" s="4"/>
+      <c r="DE176" s="4"/>
     </row>
-    <row r="177" ht="15">
+    <row r="177" spans="1:109">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -46117,8 +46839,9 @@
       <c r="DB177" s="4"/>
       <c r="DC177" s="4"/>
       <c r="DD177" s="4"/>
+      <c r="DE177" s="4"/>
     </row>
-    <row r="178" ht="15">
+    <row r="178" spans="1:109">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -46227,8 +46950,9 @@
       <c r="DB178" s="4"/>
       <c r="DC178" s="4"/>
       <c r="DD178" s="4"/>
+      <c r="DE178" s="4"/>
     </row>
-    <row r="179" ht="15">
+    <row r="179" spans="1:109">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -46337,8 +47061,9 @@
       <c r="DB179" s="4"/>
       <c r="DC179" s="4"/>
       <c r="DD179" s="4"/>
+      <c r="DE179" s="4"/>
     </row>
-    <row r="180" ht="15">
+    <row r="180" spans="1:109">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -46447,8 +47172,9 @@
       <c r="DB180" s="4"/>
       <c r="DC180" s="4"/>
       <c r="DD180" s="4"/>
+      <c r="DE180" s="4"/>
     </row>
-    <row r="181" ht="15">
+    <row r="181" spans="1:109">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -46557,8 +47283,9 @@
       <c r="DB181" s="4"/>
       <c r="DC181" s="4"/>
       <c r="DD181" s="4"/>
+      <c r="DE181" s="4"/>
     </row>
-    <row r="182" ht="15">
+    <row r="182" spans="1:109">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -46667,8 +47394,9 @@
       <c r="DB182" s="4"/>
       <c r="DC182" s="4"/>
       <c r="DD182" s="4"/>
+      <c r="DE182" s="4"/>
     </row>
-    <row r="183" ht="15">
+    <row r="183" spans="1:109">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -46777,8 +47505,9 @@
       <c r="DB183" s="4"/>
       <c r="DC183" s="4"/>
       <c r="DD183" s="4"/>
+      <c r="DE183" s="4"/>
     </row>
-    <row r="184" ht="15">
+    <row r="184" spans="1:109">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -46887,8 +47616,9 @@
       <c r="DB184" s="4"/>
       <c r="DC184" s="4"/>
       <c r="DD184" s="4"/>
+      <c r="DE184" s="4"/>
     </row>
-    <row r="185" ht="15">
+    <row r="185" spans="1:109">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -46997,8 +47727,9 @@
       <c r="DB185" s="4"/>
       <c r="DC185" s="4"/>
       <c r="DD185" s="4"/>
+      <c r="DE185" s="4"/>
     </row>
-    <row r="186" ht="15">
+    <row r="186" spans="1:109">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -47107,8 +47838,9 @@
       <c r="DB186" s="4"/>
       <c r="DC186" s="4"/>
       <c r="DD186" s="4"/>
+      <c r="DE186" s="4"/>
     </row>
-    <row r="187" ht="15">
+    <row r="187" spans="1:109">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -47217,8 +47949,9 @@
       <c r="DB187" s="4"/>
       <c r="DC187" s="4"/>
       <c r="DD187" s="4"/>
+      <c r="DE187" s="4"/>
     </row>
-    <row r="188" ht="15">
+    <row r="188" spans="1:109">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -47327,8 +48060,9 @@
       <c r="DB188" s="4"/>
       <c r="DC188" s="4"/>
       <c r="DD188" s="4"/>
+      <c r="DE188" s="4"/>
     </row>
-    <row r="189" ht="15">
+    <row r="189" spans="1:109">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -47437,8 +48171,9 @@
       <c r="DB189" s="4"/>
       <c r="DC189" s="4"/>
       <c r="DD189" s="4"/>
+      <c r="DE189" s="4"/>
     </row>
-    <row r="190" ht="15">
+    <row r="190" spans="1:109">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -47547,8 +48282,9 @@
       <c r="DB190" s="4"/>
       <c r="DC190" s="4"/>
       <c r="DD190" s="4"/>
+      <c r="DE190" s="4"/>
     </row>
-    <row r="191" ht="15">
+    <row r="191" spans="1:109">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -47657,8 +48393,9 @@
       <c r="DB191" s="4"/>
       <c r="DC191" s="4"/>
       <c r="DD191" s="4"/>
+      <c r="DE191" s="4"/>
     </row>
-    <row r="192" ht="15">
+    <row r="192" spans="1:109">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -47767,8 +48504,9 @@
       <c r="DB192" s="4"/>
       <c r="DC192" s="4"/>
       <c r="DD192" s="4"/>
+      <c r="DE192" s="4"/>
     </row>
-    <row r="193" ht="15">
+    <row r="193" spans="1:109">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -47877,8 +48615,9 @@
       <c r="DB193" s="4"/>
       <c r="DC193" s="4"/>
       <c r="DD193" s="4"/>
+      <c r="DE193" s="4"/>
     </row>
-    <row r="194" ht="15">
+    <row r="194" spans="1:109">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -47987,8 +48726,9 @@
       <c r="DB194" s="4"/>
       <c r="DC194" s="4"/>
       <c r="DD194" s="4"/>
+      <c r="DE194" s="4"/>
     </row>
-    <row r="195" ht="15">
+    <row r="195" spans="1:109">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -48097,8 +48837,9 @@
       <c r="DB195" s="4"/>
       <c r="DC195" s="4"/>
       <c r="DD195" s="4"/>
+      <c r="DE195" s="4"/>
     </row>
-    <row r="196" ht="15">
+    <row r="196" spans="1:109">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -48207,8 +48948,9 @@
       <c r="DB196" s="4"/>
       <c r="DC196" s="4"/>
       <c r="DD196" s="4"/>
+      <c r="DE196" s="4"/>
     </row>
-    <row r="197" ht="15">
+    <row r="197" spans="1:109">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -48317,8 +49059,9 @@
       <c r="DB197" s="4"/>
       <c r="DC197" s="4"/>
       <c r="DD197" s="4"/>
+      <c r="DE197" s="4"/>
     </row>
-    <row r="198" ht="15">
+    <row r="198" spans="1:109">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -48427,8 +49170,9 @@
       <c r="DB198" s="4"/>
       <c r="DC198" s="4"/>
       <c r="DD198" s="4"/>
+      <c r="DE198" s="4"/>
     </row>
-    <row r="199" ht="15">
+    <row r="199" spans="1:109">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -48537,8 +49281,9 @@
       <c r="DB199" s="4"/>
       <c r="DC199" s="4"/>
       <c r="DD199" s="4"/>
+      <c r="DE199" s="4"/>
     </row>
-    <row r="200" ht="15">
+    <row r="200" spans="1:109">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -48647,8 +49392,9 @@
       <c r="DB200" s="4"/>
       <c r="DC200" s="4"/>
       <c r="DD200" s="4"/>
+      <c r="DE200" s="4"/>
     </row>
-    <row r="201" ht="15">
+    <row r="201" spans="1:109">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -48757,8 +49503,9 @@
       <c r="DB201" s="4"/>
       <c r="DC201" s="4"/>
       <c r="DD201" s="4"/>
+      <c r="DE201" s="4"/>
     </row>
-    <row r="202" ht="15">
+    <row r="202" spans="1:109">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -48867,8 +49614,9 @@
       <c r="DB202" s="4"/>
       <c r="DC202" s="4"/>
       <c r="DD202" s="4"/>
+      <c r="DE202" s="4"/>
     </row>
-    <row r="203" ht="15">
+    <row r="203" spans="1:109">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -48977,8 +49725,9 @@
       <c r="DB203" s="4"/>
       <c r="DC203" s="4"/>
       <c r="DD203" s="4"/>
+      <c r="DE203" s="4"/>
     </row>
-    <row r="204" ht="15">
+    <row r="204" spans="1:109">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -49087,8 +49836,9 @@
       <c r="DB204" s="4"/>
       <c r="DC204" s="4"/>
       <c r="DD204" s="4"/>
+      <c r="DE204" s="4"/>
     </row>
-    <row r="205" ht="15">
+    <row r="205" spans="1:109">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -49197,8 +49947,9 @@
       <c r="DB205" s="4"/>
       <c r="DC205" s="4"/>
       <c r="DD205" s="4"/>
+      <c r="DE205" s="4"/>
     </row>
-    <row r="206" ht="15">
+    <row r="206" spans="1:109">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -49307,8 +50058,9 @@
       <c r="DB206" s="4"/>
       <c r="DC206" s="4"/>
       <c r="DD206" s="4"/>
+      <c r="DE206" s="4"/>
     </row>
-    <row r="207" ht="15">
+    <row r="207" spans="1:109">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -49417,8 +50169,9 @@
       <c r="DB207" s="4"/>
       <c r="DC207" s="4"/>
       <c r="DD207" s="4"/>
+      <c r="DE207" s="4"/>
     </row>
-    <row r="208" ht="15">
+    <row r="208" spans="1:109">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -49527,8 +50280,9 @@
       <c r="DB208" s="4"/>
       <c r="DC208" s="4"/>
       <c r="DD208" s="4"/>
+      <c r="DE208" s="4"/>
     </row>
-    <row r="209" ht="15">
+    <row r="209" spans="1:109">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -49637,8 +50391,9 @@
       <c r="DB209" s="4"/>
       <c r="DC209" s="4"/>
       <c r="DD209" s="4"/>
+      <c r="DE209" s="4"/>
     </row>
-    <row r="210" ht="15">
+    <row r="210" spans="1:109">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -49747,8 +50502,9 @@
       <c r="DB210" s="4"/>
       <c r="DC210" s="4"/>
       <c r="DD210" s="4"/>
+      <c r="DE210" s="4"/>
     </row>
-    <row r="211" ht="15">
+    <row r="211" spans="1:109">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -49857,8 +50613,9 @@
       <c r="DB211" s="4"/>
       <c r="DC211" s="4"/>
       <c r="DD211" s="4"/>
+      <c r="DE211" s="4"/>
     </row>
-    <row r="212" ht="15">
+    <row r="212" spans="1:109">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -49967,8 +50724,9 @@
       <c r="DB212" s="4"/>
       <c r="DC212" s="4"/>
       <c r="DD212" s="4"/>
+      <c r="DE212" s="4"/>
     </row>
-    <row r="213" ht="15">
+    <row r="213" spans="1:109">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -50077,8 +50835,9 @@
       <c r="DB213" s="4"/>
       <c r="DC213" s="4"/>
       <c r="DD213" s="4"/>
+      <c r="DE213" s="4"/>
     </row>
-    <row r="214" ht="15">
+    <row r="214" spans="1:109">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -50187,8 +50946,9 @@
       <c r="DB214" s="4"/>
       <c r="DC214" s="4"/>
       <c r="DD214" s="4"/>
+      <c r="DE214" s="4"/>
     </row>
-    <row r="215" ht="15">
+    <row r="215" spans="1:109">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -50297,8 +51057,9 @@
       <c r="DB215" s="4"/>
       <c r="DC215" s="4"/>
       <c r="DD215" s="4"/>
+      <c r="DE215" s="4"/>
     </row>
-    <row r="216" ht="15">
+    <row r="216" spans="1:109">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -50407,8 +51168,9 @@
       <c r="DB216" s="4"/>
       <c r="DC216" s="4"/>
       <c r="DD216" s="4"/>
+      <c r="DE216" s="4"/>
     </row>
-    <row r="217" ht="15">
+    <row r="217" spans="1:109">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -50517,8 +51279,9 @@
       <c r="DB217" s="4"/>
       <c r="DC217" s="4"/>
       <c r="DD217" s="4"/>
+      <c r="DE217" s="4"/>
     </row>
-    <row r="218" ht="15">
+    <row r="218" spans="1:109">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -50627,8 +51390,9 @@
       <c r="DB218" s="4"/>
       <c r="DC218" s="4"/>
       <c r="DD218" s="4"/>
+      <c r="DE218" s="4"/>
     </row>
-    <row r="219" ht="15">
+    <row r="219" spans="1:109">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -50737,8 +51501,9 @@
       <c r="DB219" s="4"/>
       <c r="DC219" s="4"/>
       <c r="DD219" s="4"/>
+      <c r="DE219" s="4"/>
     </row>
-    <row r="220" ht="15">
+    <row r="220" spans="1:109">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -50847,8 +51612,9 @@
       <c r="DB220" s="4"/>
       <c r="DC220" s="4"/>
       <c r="DD220" s="4"/>
+      <c r="DE220" s="4"/>
     </row>
-    <row r="221" ht="15">
+    <row r="221" spans="1:109">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -50957,8 +51723,9 @@
       <c r="DB221" s="4"/>
       <c r="DC221" s="4"/>
       <c r="DD221" s="4"/>
+      <c r="DE221" s="4"/>
     </row>
-    <row r="222" ht="15">
+    <row r="222" spans="1:109">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -51067,8 +51834,9 @@
       <c r="DB222" s="4"/>
       <c r="DC222" s="4"/>
       <c r="DD222" s="4"/>
+      <c r="DE222" s="4"/>
     </row>
-    <row r="223" ht="15">
+    <row r="223" spans="1:109">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -51177,8 +51945,9 @@
       <c r="DB223" s="4"/>
       <c r="DC223" s="4"/>
       <c r="DD223" s="4"/>
+      <c r="DE223" s="4"/>
     </row>
-    <row r="224" ht="15">
+    <row r="224" spans="1:109">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -51287,8 +52056,9 @@
       <c r="DB224" s="4"/>
       <c r="DC224" s="4"/>
       <c r="DD224" s="4"/>
+      <c r="DE224" s="4"/>
     </row>
-    <row r="225" ht="15">
+    <row r="225" spans="1:109">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -51397,8 +52167,9 @@
       <c r="DB225" s="4"/>
       <c r="DC225" s="4"/>
       <c r="DD225" s="4"/>
+      <c r="DE225" s="4"/>
     </row>
-    <row r="226" ht="15">
+    <row r="226" spans="1:109">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -51507,8 +52278,9 @@
       <c r="DB226" s="4"/>
       <c r="DC226" s="4"/>
       <c r="DD226" s="4"/>
+      <c r="DE226" s="4"/>
     </row>
-    <row r="227" ht="15">
+    <row r="227" spans="1:109">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -51617,8 +52389,9 @@
       <c r="DB227" s="4"/>
       <c r="DC227" s="4"/>
       <c r="DD227" s="4"/>
+      <c r="DE227" s="4"/>
     </row>
-    <row r="228" ht="15">
+    <row r="228" spans="1:109">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -51727,8 +52500,9 @@
       <c r="DB228" s="4"/>
       <c r="DC228" s="4"/>
       <c r="DD228" s="4"/>
+      <c r="DE228" s="4"/>
     </row>
-    <row r="229" ht="15">
+    <row r="229" spans="1:109">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -51837,8 +52611,9 @@
       <c r="DB229" s="4"/>
       <c r="DC229" s="4"/>
       <c r="DD229" s="4"/>
+      <c r="DE229" s="4"/>
     </row>
-    <row r="230" ht="15">
+    <row r="230" spans="1:109">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -51947,8 +52722,9 @@
       <c r="DB230" s="4"/>
       <c r="DC230" s="4"/>
       <c r="DD230" s="4"/>
+      <c r="DE230" s="4"/>
     </row>
-    <row r="231" ht="15">
+    <row r="231" spans="1:109">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -52057,8 +52833,9 @@
       <c r="DB231" s="4"/>
       <c r="DC231" s="4"/>
       <c r="DD231" s="4"/>
+      <c r="DE231" s="4"/>
     </row>
-    <row r="232" ht="15">
+    <row r="232" spans="1:109">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -52167,8 +52944,9 @@
       <c r="DB232" s="4"/>
       <c r="DC232" s="4"/>
       <c r="DD232" s="4"/>
+      <c r="DE232" s="4"/>
     </row>
-    <row r="233" ht="15">
+    <row r="233" spans="1:109">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -52277,8 +53055,9 @@
       <c r="DB233" s="4"/>
       <c r="DC233" s="4"/>
       <c r="DD233" s="4"/>
+      <c r="DE233" s="4"/>
     </row>
-    <row r="234" ht="15">
+    <row r="234" spans="1:109">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -52387,8 +53166,9 @@
       <c r="DB234" s="4"/>
       <c r="DC234" s="4"/>
       <c r="DD234" s="4"/>
+      <c r="DE234" s="4"/>
     </row>
-    <row r="235" ht="15">
+    <row r="235" spans="1:109">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -52497,8 +53277,9 @@
       <c r="DB235" s="4"/>
       <c r="DC235" s="4"/>
       <c r="DD235" s="4"/>
+      <c r="DE235" s="4"/>
     </row>
-    <row r="236" ht="15">
+    <row r="236" spans="1:109">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -52607,8 +53388,9 @@
       <c r="DB236" s="4"/>
       <c r="DC236" s="4"/>
       <c r="DD236" s="4"/>
+      <c r="DE236" s="4"/>
     </row>
-    <row r="237" ht="15">
+    <row r="237" spans="1:109">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -52717,8 +53499,9 @@
       <c r="DB237" s="4"/>
       <c r="DC237" s="4"/>
       <c r="DD237" s="4"/>
+      <c r="DE237" s="4"/>
     </row>
-    <row r="238" ht="15">
+    <row r="238" spans="1:109">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -52827,8 +53610,9 @@
       <c r="DB238" s="4"/>
       <c r="DC238" s="4"/>
       <c r="DD238" s="4"/>
+      <c r="DE238" s="4"/>
     </row>
-    <row r="239" ht="15">
+    <row r="239" spans="1:109">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -52937,8 +53721,9 @@
       <c r="DB239" s="4"/>
       <c r="DC239" s="4"/>
       <c r="DD239" s="4"/>
+      <c r="DE239" s="4"/>
     </row>
-    <row r="240" ht="15">
+    <row r="240" spans="1:109">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -53047,8 +53832,9 @@
       <c r="DB240" s="4"/>
       <c r="DC240" s="4"/>
       <c r="DD240" s="4"/>
+      <c r="DE240" s="4"/>
     </row>
-    <row r="241" ht="15">
+    <row r="241" spans="1:109">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -53157,8 +53943,9 @@
       <c r="DB241" s="4"/>
       <c r="DC241" s="4"/>
       <c r="DD241" s="4"/>
+      <c r="DE241" s="4"/>
     </row>
-    <row r="242" ht="15">
+    <row r="242" spans="1:109">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -53267,8 +54054,9 @@
       <c r="DB242" s="4"/>
       <c r="DC242" s="4"/>
       <c r="DD242" s="4"/>
+      <c r="DE242" s="4"/>
     </row>
-    <row r="243" ht="15">
+    <row r="243" spans="1:109">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -53377,8 +54165,9 @@
       <c r="DB243" s="4"/>
       <c r="DC243" s="4"/>
       <c r="DD243" s="4"/>
+      <c r="DE243" s="4"/>
     </row>
-    <row r="244" ht="15">
+    <row r="244" spans="1:109">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -53487,8 +54276,9 @@
       <c r="DB244" s="4"/>
       <c r="DC244" s="4"/>
       <c r="DD244" s="4"/>
+      <c r="DE244" s="4"/>
     </row>
-    <row r="245" ht="15">
+    <row r="245" spans="1:109">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -53597,8 +54387,9 @@
       <c r="DB245" s="4"/>
       <c r="DC245" s="4"/>
       <c r="DD245" s="4"/>
+      <c r="DE245" s="4"/>
     </row>
-    <row r="246" ht="15">
+    <row r="246" spans="1:109">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -53707,8 +54498,9 @@
       <c r="DB246" s="4"/>
       <c r="DC246" s="4"/>
       <c r="DD246" s="4"/>
+      <c r="DE246" s="4"/>
     </row>
-    <row r="247" ht="15">
+    <row r="247" spans="1:109">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -53817,8 +54609,9 @@
       <c r="DB247" s="4"/>
       <c r="DC247" s="4"/>
       <c r="DD247" s="4"/>
+      <c r="DE247" s="4"/>
     </row>
-    <row r="248" ht="15">
+    <row r="248" spans="1:109">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -53927,8 +54720,9 @@
       <c r="DB248" s="4"/>
       <c r="DC248" s="4"/>
       <c r="DD248" s="4"/>
+      <c r="DE248" s="4"/>
     </row>
-    <row r="249" ht="15">
+    <row r="249" spans="1:109">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -54037,8 +54831,9 @@
       <c r="DB249" s="4"/>
       <c r="DC249" s="4"/>
       <c r="DD249" s="4"/>
+      <c r="DE249" s="4"/>
     </row>
-    <row r="250" ht="15">
+    <row r="250" spans="1:109">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -54147,8 +54942,9 @@
       <c r="DB250" s="4"/>
       <c r="DC250" s="4"/>
       <c r="DD250" s="4"/>
+      <c r="DE250" s="4"/>
     </row>
-    <row r="251" ht="15">
+    <row r="251" spans="1:109">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -54257,8 +55053,9 @@
       <c r="DB251" s="4"/>
       <c r="DC251" s="4"/>
       <c r="DD251" s="4"/>
+      <c r="DE251" s="4"/>
     </row>
-    <row r="252" ht="15">
+    <row r="252" spans="1:109">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -54367,8 +55164,9 @@
       <c r="DB252" s="4"/>
       <c r="DC252" s="4"/>
       <c r="DD252" s="4"/>
+      <c r="DE252" s="4"/>
     </row>
-    <row r="253" ht="15">
+    <row r="253" spans="1:109">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -54477,8 +55275,9 @@
       <c r="DB253" s="4"/>
       <c r="DC253" s="4"/>
       <c r="DD253" s="4"/>
+      <c r="DE253" s="4"/>
     </row>
-    <row r="254" ht="15">
+    <row r="254" spans="1:109">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -54587,8 +55386,9 @@
       <c r="DB254" s="4"/>
       <c r="DC254" s="4"/>
       <c r="DD254" s="4"/>
+      <c r="DE254" s="4"/>
     </row>
-    <row r="255" ht="15">
+    <row r="255" spans="1:109">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -54697,8 +55497,9 @@
       <c r="DB255" s="4"/>
       <c r="DC255" s="4"/>
       <c r="DD255" s="4"/>
+      <c r="DE255" s="4"/>
     </row>
-    <row r="256" ht="15">
+    <row r="256" spans="1:109">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -54807,8 +55608,9 @@
       <c r="DB256" s="4"/>
       <c r="DC256" s="4"/>
       <c r="DD256" s="4"/>
+      <c r="DE256" s="4"/>
     </row>
-    <row r="257" ht="15">
+    <row r="257" spans="1:109">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -54917,8 +55719,9 @@
       <c r="DB257" s="4"/>
       <c r="DC257" s="4"/>
       <c r="DD257" s="4"/>
+      <c r="DE257" s="4"/>
     </row>
-    <row r="258" ht="15">
+    <row r="258" spans="1:109">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -55027,8 +55830,9 @@
       <c r="DB258" s="4"/>
       <c r="DC258" s="4"/>
       <c r="DD258" s="4"/>
+      <c r="DE258" s="4"/>
     </row>
-    <row r="259" ht="15">
+    <row r="259" spans="1:109">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -55137,8 +55941,9 @@
       <c r="DB259" s="4"/>
       <c r="DC259" s="4"/>
       <c r="DD259" s="4"/>
+      <c r="DE259" s="4"/>
     </row>
-    <row r="260" ht="15">
+    <row r="260" spans="1:109">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -55247,8 +56052,9 @@
       <c r="DB260" s="4"/>
       <c r="DC260" s="4"/>
       <c r="DD260" s="4"/>
+      <c r="DE260" s="4"/>
     </row>
-    <row r="261" ht="15">
+    <row r="261" spans="1:109">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -55357,8 +56163,9 @@
       <c r="DB261" s="4"/>
       <c r="DC261" s="4"/>
       <c r="DD261" s="4"/>
+      <c r="DE261" s="4"/>
     </row>
-    <row r="262" ht="15">
+    <row r="262" spans="1:109">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -55467,8 +56274,9 @@
       <c r="DB262" s="4"/>
       <c r="DC262" s="4"/>
       <c r="DD262" s="4"/>
+      <c r="DE262" s="4"/>
     </row>
-    <row r="263" ht="15">
+    <row r="263" spans="1:109">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -55577,8 +56385,9 @@
       <c r="DB263" s="4"/>
       <c r="DC263" s="4"/>
       <c r="DD263" s="4"/>
+      <c r="DE263" s="4"/>
     </row>
-    <row r="264" ht="15">
+    <row r="264" spans="1:109">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -55687,8 +56496,9 @@
       <c r="DB264" s="4"/>
       <c r="DC264" s="4"/>
       <c r="DD264" s="4"/>
+      <c r="DE264" s="4"/>
     </row>
-    <row r="265" ht="15">
+    <row r="265" spans="1:109">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -55797,8 +56607,9 @@
       <c r="DB265" s="4"/>
       <c r="DC265" s="4"/>
       <c r="DD265" s="4"/>
+      <c r="DE265" s="4"/>
     </row>
-    <row r="266" ht="15">
+    <row r="266" spans="1:109">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -55907,8 +56718,9 @@
       <c r="DB266" s="4"/>
       <c r="DC266" s="4"/>
       <c r="DD266" s="4"/>
+      <c r="DE266" s="4"/>
     </row>
-    <row r="267" ht="15">
+    <row r="267" spans="1:109">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -56017,8 +56829,9 @@
       <c r="DB267" s="4"/>
       <c r="DC267" s="4"/>
       <c r="DD267" s="4"/>
+      <c r="DE267" s="4"/>
     </row>
-    <row r="268" ht="15">
+    <row r="268" spans="1:109">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -56127,8 +56940,9 @@
       <c r="DB268" s="4"/>
       <c r="DC268" s="4"/>
       <c r="DD268" s="4"/>
+      <c r="DE268" s="4"/>
     </row>
-    <row r="269" ht="15">
+    <row r="269" spans="1:109">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -56237,8 +57051,9 @@
       <c r="DB269" s="4"/>
       <c r="DC269" s="4"/>
       <c r="DD269" s="4"/>
+      <c r="DE269" s="4"/>
     </row>
-    <row r="270" ht="15">
+    <row r="270" spans="1:109">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -56347,8 +57162,9 @@
       <c r="DB270" s="4"/>
       <c r="DC270" s="4"/>
       <c r="DD270" s="4"/>
+      <c r="DE270" s="4"/>
     </row>
-    <row r="271" ht="15">
+    <row r="271" spans="1:109">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -56457,8 +57273,9 @@
       <c r="DB271" s="4"/>
       <c r="DC271" s="4"/>
       <c r="DD271" s="4"/>
+      <c r="DE271" s="4"/>
     </row>
-    <row r="272" ht="15">
+    <row r="272" spans="1:109">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -56567,8 +57384,9 @@
       <c r="DB272" s="4"/>
       <c r="DC272" s="4"/>
       <c r="DD272" s="4"/>
+      <c r="DE272" s="4"/>
     </row>
-    <row r="273" ht="15">
+    <row r="273" spans="1:109">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -56677,8 +57495,9 @@
       <c r="DB273" s="4"/>
       <c r="DC273" s="4"/>
       <c r="DD273" s="4"/>
+      <c r="DE273" s="4"/>
     </row>
-    <row r="274" ht="15">
+    <row r="274" spans="1:109">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -56787,8 +57606,9 @@
       <c r="DB274" s="4"/>
       <c r="DC274" s="4"/>
       <c r="DD274" s="4"/>
+      <c r="DE274" s="4"/>
     </row>
-    <row r="275" ht="15">
+    <row r="275" spans="1:109">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -56897,8 +57717,9 @@
       <c r="DB275" s="4"/>
       <c r="DC275" s="4"/>
       <c r="DD275" s="4"/>
+      <c r="DE275" s="4"/>
     </row>
-    <row r="276" ht="15">
+    <row r="276" spans="1:109">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -57007,8 +57828,9 @@
       <c r="DB276" s="4"/>
       <c r="DC276" s="4"/>
       <c r="DD276" s="4"/>
+      <c r="DE276" s="4"/>
     </row>
-    <row r="277" ht="15">
+    <row r="277" spans="1:109">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -57117,8 +57939,9 @@
       <c r="DB277" s="4"/>
       <c r="DC277" s="4"/>
       <c r="DD277" s="4"/>
+      <c r="DE277" s="4"/>
     </row>
-    <row r="278" ht="15">
+    <row r="278" spans="1:109">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -57227,8 +58050,9 @@
       <c r="DB278" s="4"/>
       <c r="DC278" s="4"/>
       <c r="DD278" s="4"/>
+      <c r="DE278" s="4"/>
     </row>
-    <row r="279" ht="15">
+    <row r="279" spans="1:109">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -57337,8 +58161,9 @@
       <c r="DB279" s="4"/>
       <c r="DC279" s="4"/>
       <c r="DD279" s="4"/>
+      <c r="DE279" s="4"/>
     </row>
-    <row r="280" ht="15">
+    <row r="280" spans="1:109">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -57447,8 +58272,9 @@
       <c r="DB280" s="4"/>
       <c r="DC280" s="4"/>
       <c r="DD280" s="4"/>
+      <c r="DE280" s="4"/>
     </row>
-    <row r="281" ht="15">
+    <row r="281" spans="1:109">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -57557,8 +58383,9 @@
       <c r="DB281" s="4"/>
       <c r="DC281" s="4"/>
       <c r="DD281" s="4"/>
+      <c r="DE281" s="4"/>
     </row>
-    <row r="282" ht="15">
+    <row r="282" spans="1:109">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -57667,8 +58494,9 @@
       <c r="DB282" s="4"/>
       <c r="DC282" s="4"/>
       <c r="DD282" s="4"/>
+      <c r="DE282" s="4"/>
     </row>
-    <row r="283" ht="15">
+    <row r="283" spans="1:109">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -57777,8 +58605,9 @@
       <c r="DB283" s="4"/>
       <c r="DC283" s="4"/>
       <c r="DD283" s="4"/>
+      <c r="DE283" s="4"/>
     </row>
-    <row r="284" ht="15">
+    <row r="284" spans="1:109">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -57887,8 +58716,9 @@
       <c r="DB284" s="4"/>
       <c r="DC284" s="4"/>
       <c r="DD284" s="4"/>
+      <c r="DE284" s="4"/>
     </row>
-    <row r="285" ht="15">
+    <row r="285" spans="1:109">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -57997,8 +58827,9 @@
       <c r="DB285" s="4"/>
       <c r="DC285" s="4"/>
       <c r="DD285" s="4"/>
+      <c r="DE285" s="4"/>
     </row>
-    <row r="286" ht="15">
+    <row r="286" spans="1:109">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -58107,8 +58938,9 @@
       <c r="DB286" s="4"/>
       <c r="DC286" s="4"/>
       <c r="DD286" s="4"/>
+      <c r="DE286" s="4"/>
     </row>
-    <row r="287" ht="15">
+    <row r="287" spans="1:109">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -58217,8 +59049,9 @@
       <c r="DB287" s="4"/>
       <c r="DC287" s="4"/>
       <c r="DD287" s="4"/>
+      <c r="DE287" s="4"/>
     </row>
-    <row r="288" ht="15">
+    <row r="288" spans="1:109">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -58327,8 +59160,9 @@
       <c r="DB288" s="4"/>
       <c r="DC288" s="4"/>
       <c r="DD288" s="4"/>
+      <c r="DE288" s="4"/>
     </row>
-    <row r="289" ht="15">
+    <row r="289" spans="1:109">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -58437,8 +59271,9 @@
       <c r="DB289" s="4"/>
       <c r="DC289" s="4"/>
       <c r="DD289" s="4"/>
+      <c r="DE289" s="4"/>
     </row>
-    <row r="290" ht="15">
+    <row r="290" spans="1:109">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -58547,8 +59382,9 @@
       <c r="DB290" s="4"/>
       <c r="DC290" s="4"/>
       <c r="DD290" s="4"/>
+      <c r="DE290" s="4"/>
     </row>
-    <row r="291" ht="15">
+    <row r="291" spans="1:109">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -58657,8 +59493,9 @@
       <c r="DB291" s="4"/>
       <c r="DC291" s="4"/>
       <c r="DD291" s="4"/>
+      <c r="DE291" s="4"/>
     </row>
-    <row r="292" ht="15">
+    <row r="292" spans="1:109">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -58767,8 +59604,9 @@
       <c r="DB292" s="4"/>
       <c r="DC292" s="4"/>
       <c r="DD292" s="4"/>
+      <c r="DE292" s="4"/>
     </row>
-    <row r="293" ht="15">
+    <row r="293" spans="1:109">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -58877,8 +59715,9 @@
       <c r="DB293" s="4"/>
       <c r="DC293" s="4"/>
       <c r="DD293" s="4"/>
+      <c r="DE293" s="4"/>
     </row>
-    <row r="294" ht="15">
+    <row r="294" spans="1:109">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -58987,11 +59826,23 @@
       <c r="DB294" s="4"/>
       <c r="DC294" s="4"/>
       <c r="DD294" s="4"/>
+      <c r="DE294" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <conditionalFormatting sqref="C2:DW94">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>182</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>499</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>499</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>

--- a/src/main/resources/matrix-syntax.xlsx
+++ b/src/main/resources/matrix-syntax.xlsx
@@ -675,10 +675,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -703,6 +703,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -710,9 +717,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,15 +747,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,16 +763,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,7 +780,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,17 +817,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,14 +840,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,7 +861,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,13 +897,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,151 +1029,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,11 +1064,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,6 +1127,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1126,79 +1161,41 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1207,101 +1204,104 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1620,10 +1620,10 @@
   <sheetPr/>
   <dimension ref="A1:DW294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DV1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="EB89" sqref="EB89"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="12.75"/>
@@ -2923,7 +2923,7 @@
         <v>508</v>
       </c>
       <c r="AV4" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW4" s="3">
         <v>508</v>
@@ -2995,7 +2995,7 @@
         <v>508</v>
       </c>
       <c r="BT4" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU4" s="3">
         <v>508</v>
@@ -3306,7 +3306,7 @@
         <v>506</v>
       </c>
       <c r="AV5" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW5" s="3">
         <v>506</v>
@@ -3689,7 +3689,7 @@
         <v>508</v>
       </c>
       <c r="AV6" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW6" s="3">
         <v>508</v>
@@ -4072,7 +4072,7 @@
         <v>508</v>
       </c>
       <c r="AV7" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW7" s="3">
         <v>508</v>
@@ -4458,7 +4458,7 @@
         <v>508</v>
       </c>
       <c r="AW8" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX8" s="3">
         <v>508</v>
@@ -5257,7 +5257,7 @@
         <v>508</v>
       </c>
       <c r="BH10" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BI10" s="3">
         <v>508</v>
@@ -5607,7 +5607,7 @@
         <v>509</v>
       </c>
       <c r="AW11" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX11" s="3">
         <v>509</v>
@@ -6385,7 +6385,7 @@
         <v>510</v>
       </c>
       <c r="BA13" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB13" s="3">
         <v>510</v>
@@ -6753,7 +6753,7 @@
         <v>511</v>
       </c>
       <c r="AV14" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW14" s="3">
         <v>511</v>
@@ -7139,7 +7139,7 @@
         <v>508</v>
       </c>
       <c r="AW15" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX15" s="3">
         <v>508</v>
@@ -7917,7 +7917,7 @@
         <v>510</v>
       </c>
       <c r="BA17" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB17" s="3">
         <v>510</v>
@@ -8288,7 +8288,7 @@
         <v>508</v>
       </c>
       <c r="AW18" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX18" s="3">
         <v>508</v>
@@ -8671,7 +8671,7 @@
         <v>508</v>
       </c>
       <c r="AW19" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX19" s="3">
         <v>508</v>
@@ -10981,7 +10981,7 @@
         <v>510</v>
       </c>
       <c r="BA25" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB25" s="3">
         <v>510</v>
@@ -11349,7 +11349,7 @@
         <v>511</v>
       </c>
       <c r="AV26" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW26" s="3">
         <v>511</v>
@@ -11735,7 +11735,7 @@
         <v>508</v>
       </c>
       <c r="AW27" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX27" s="3">
         <v>508</v>
@@ -12130,7 +12130,7 @@
         <v>510</v>
       </c>
       <c r="BA28" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB28" s="3">
         <v>510</v>
@@ -13656,7 +13656,7 @@
         <v>523</v>
       </c>
       <c r="AY32" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ32" s="3">
         <v>47</v>
@@ -14039,7 +14039,7 @@
         <v>510</v>
       </c>
       <c r="AY33" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ33" s="3">
         <v>510</v>
@@ -14326,7 +14326,7 @@
         <v>514</v>
       </c>
       <c r="S34" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T34" s="3">
         <v>514</v>
@@ -14413,7 +14413,7 @@
         <v>514</v>
       </c>
       <c r="AV34" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW34" s="3">
         <v>514</v>
@@ -14485,7 +14485,7 @@
         <v>514</v>
       </c>
       <c r="BT34" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU34" s="3">
         <v>514</v>
@@ -15317,10 +15317,10 @@
         <v>509</v>
       </c>
       <c r="CP36" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CQ36" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CR36" s="3">
         <v>509</v>
@@ -15598,7 +15598,7 @@
         <v>510</v>
       </c>
       <c r="BH37" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BI37" s="3">
         <v>510</v>
@@ -15948,7 +15948,7 @@
         <v>510</v>
       </c>
       <c r="AW38" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX38" s="3">
         <v>510</v>
@@ -17232,10 +17232,10 @@
         <v>509</v>
       </c>
       <c r="CP41" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CQ41" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CR41" s="3">
         <v>509</v>
@@ -17513,7 +17513,7 @@
         <v>510</v>
       </c>
       <c r="BH42" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BI42" s="3">
         <v>510</v>
@@ -17863,7 +17863,7 @@
         <v>510</v>
       </c>
       <c r="AW43" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX43" s="3">
         <v>510</v>
@@ -18189,7 +18189,7 @@
         <v>526</v>
       </c>
       <c r="AD44" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE44" s="3">
         <v>526</v>
@@ -19018,7 +19018,7 @@
         <v>523</v>
       </c>
       <c r="AY46" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ46" s="3">
         <v>68</v>
@@ -19401,7 +19401,7 @@
         <v>510</v>
       </c>
       <c r="AY47" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ47" s="3">
         <v>510</v>
@@ -20544,7 +20544,7 @@
         <v>508</v>
       </c>
       <c r="AW50" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX50" s="3">
         <v>508</v>
@@ -21322,7 +21322,7 @@
         <v>510</v>
       </c>
       <c r="BA52" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB52" s="3">
         <v>510</v>
@@ -21690,7 +21690,7 @@
         <v>511</v>
       </c>
       <c r="AV53" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW53" s="3">
         <v>511</v>
@@ -22076,7 +22076,7 @@
         <v>508</v>
       </c>
       <c r="AW54" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX54" s="3">
         <v>508</v>
@@ -23620,7 +23620,7 @@
         <v>510</v>
       </c>
       <c r="BA58" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB58" s="3">
         <v>510</v>
@@ -23901,7 +23901,7 @@
         <v>530</v>
       </c>
       <c r="S59" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T59" s="3">
         <v>530</v>
@@ -23988,10 +23988,10 @@
         <v>530</v>
       </c>
       <c r="AV59" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW59" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX59" s="3">
         <v>530</v>
@@ -24051,7 +24051,7 @@
         <v>530</v>
       </c>
       <c r="BQ59" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BR59" s="3">
         <v>530</v>
@@ -24060,7 +24060,7 @@
         <v>530</v>
       </c>
       <c r="BT59" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU59" s="3">
         <v>530</v>
@@ -24111,7 +24111,7 @@
         <v>530</v>
       </c>
       <c r="CK59" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL59" s="3">
         <v>530</v>
@@ -24239,7 +24239,7 @@
         <v>531</v>
       </c>
       <c r="D60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E60" s="3">
         <v>531</v>
@@ -24248,13 +24248,13 @@
         <v>531</v>
       </c>
       <c r="G60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H60" s="3">
         <v>531</v>
       </c>
       <c r="I60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J60" s="3">
         <v>531</v>
@@ -24284,7 +24284,7 @@
         <v>531</v>
       </c>
       <c r="S60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T60" s="3">
         <v>531</v>
@@ -24359,7 +24359,7 @@
         <v>531</v>
       </c>
       <c r="AR60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AS60" s="3">
         <v>531</v>
@@ -24371,7 +24371,7 @@
         <v>531</v>
       </c>
       <c r="AV60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW60" s="3">
         <v>531</v>
@@ -24383,61 +24383,61 @@
         <v>531</v>
       </c>
       <c r="AZ60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BA60" s="3">
         <v>531</v>
       </c>
       <c r="BB60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BC60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BD60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BE60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BF60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BG60" s="3">
         <v>531</v>
       </c>
       <c r="BH60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BI60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BJ60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BK60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BL60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BM60" s="3">
         <v>531</v>
       </c>
       <c r="BN60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BO60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BP60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BQ60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BR60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BS60" s="3">
         <v>531</v>
@@ -24467,34 +24467,34 @@
         <v>531</v>
       </c>
       <c r="CB60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CC60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CD60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CE60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CF60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CG60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CH60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CI60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CK60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL60" s="3">
         <v>531</v>
@@ -24518,40 +24518,40 @@
         <v>531</v>
       </c>
       <c r="CS60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CT60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CU60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CV60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CW60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CX60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CY60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CZ60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DA60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DB60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DC60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DD60" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DE60" s="3">
         <v>531</v>
@@ -24877,7 +24877,7 @@
         <v>508</v>
       </c>
       <c r="CK61" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL61" s="3">
         <v>508</v>
@@ -25140,7 +25140,7 @@
         <v>532</v>
       </c>
       <c r="AW62" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX62" s="3">
         <v>532</v>
@@ -25643,7 +25643,7 @@
         <v>508</v>
       </c>
       <c r="CK63" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL63" s="3">
         <v>508</v>
@@ -25906,7 +25906,7 @@
         <v>508</v>
       </c>
       <c r="AW64" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX64" s="3">
         <v>508</v>
@@ -26289,7 +26289,7 @@
         <v>508</v>
       </c>
       <c r="AW65" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX65" s="3">
         <v>508</v>
@@ -26965,7 +26965,7 @@
         <v>510</v>
       </c>
       <c r="S67" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T67" s="3">
         <v>510</v>
@@ -27450,7 +27450,7 @@
         <v>510</v>
       </c>
       <c r="BA68" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB68" s="3">
         <v>510</v>
@@ -28291,7 +28291,7 @@
         <v>528</v>
       </c>
       <c r="BZ70" s="3">
-        <v>528</v>
+        <v>182</v>
       </c>
       <c r="CA70" s="3">
         <v>528</v>
@@ -29742,7 +29742,7 @@
         <v>510</v>
       </c>
       <c r="AY74" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ74" s="3">
         <v>510</v>
@@ -30364,7 +30364,7 @@
         <v>199</v>
       </c>
       <c r="C76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D76" s="3">
         <v>538</v>
@@ -30373,7 +30373,7 @@
         <v>538</v>
       </c>
       <c r="F76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G76" s="3">
         <v>538</v>
@@ -30391,43 +30391,43 @@
         <v>139</v>
       </c>
       <c r="L76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N76" s="3">
         <v>538</v>
       </c>
       <c r="O76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P76" s="3">
         <v>538</v>
       </c>
       <c r="Q76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R76" s="3">
         <v>538</v>
       </c>
       <c r="S76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W76" s="3">
         <v>538</v>
       </c>
       <c r="X76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y76" s="3">
         <v>538</v>
@@ -30439,31 +30439,31 @@
         <v>538</v>
       </c>
       <c r="AB76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC76" s="3">
         <v>538</v>
       </c>
       <c r="AD76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF76" s="3">
         <v>538</v>
       </c>
       <c r="AG76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK76" s="3">
         <v>538</v>
@@ -30472,16 +30472,16 @@
         <v>538</v>
       </c>
       <c r="AM76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN76" s="3">
         <v>538</v>
       </c>
       <c r="AO76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ76" s="3">
         <v>538</v>
@@ -30490,31 +30490,31 @@
         <v>538</v>
       </c>
       <c r="AS76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AT76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AU76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX76" s="3">
         <v>538</v>
       </c>
       <c r="AY76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ76" s="3">
         <v>538</v>
       </c>
       <c r="BA76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB76" s="3">
         <v>538</v>
@@ -30550,7 +30550,7 @@
         <v>538</v>
       </c>
       <c r="BM76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BN76" s="3">
         <v>538</v>
@@ -30562,7 +30562,7 @@
         <v>538</v>
       </c>
       <c r="BQ76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BR76" s="3">
         <v>538</v>
@@ -30571,7 +30571,7 @@
         <v>538</v>
       </c>
       <c r="BT76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU76" s="3">
         <v>538</v>
@@ -30622,7 +30622,7 @@
         <v>538</v>
       </c>
       <c r="CK76" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL76" s="3">
         <v>538</v>
@@ -31130,7 +31130,7 @@
         <v>201</v>
       </c>
       <c r="C78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D78" s="3">
         <v>539</v>
@@ -31139,7 +31139,7 @@
         <v>539</v>
       </c>
       <c r="F78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G78" s="3">
         <v>539</v>
@@ -31151,10 +31151,10 @@
         <v>539</v>
       </c>
       <c r="J78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L78" s="3">
         <v>143</v>
@@ -31172,28 +31172,28 @@
         <v>539</v>
       </c>
       <c r="Q78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R78" s="3">
         <v>539</v>
       </c>
       <c r="S78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W78" s="3">
         <v>539</v>
       </c>
       <c r="X78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y78" s="3">
         <v>539</v>
@@ -31205,31 +31205,31 @@
         <v>539</v>
       </c>
       <c r="AB78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC78" s="3">
         <v>539</v>
       </c>
       <c r="AD78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF78" s="3">
         <v>539</v>
       </c>
       <c r="AG78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK78" s="3">
         <v>539</v>
@@ -31238,16 +31238,16 @@
         <v>539</v>
       </c>
       <c r="AM78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN78" s="3">
         <v>539</v>
       </c>
       <c r="AO78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ78" s="3">
         <v>539</v>
@@ -31256,31 +31256,31 @@
         <v>539</v>
       </c>
       <c r="AS78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AT78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AU78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX78" s="3">
         <v>539</v>
       </c>
       <c r="AY78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ78" s="3">
         <v>539</v>
       </c>
       <c r="BA78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB78" s="3">
         <v>539</v>
@@ -31316,7 +31316,7 @@
         <v>539</v>
       </c>
       <c r="BM78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BN78" s="3">
         <v>539</v>
@@ -31328,7 +31328,7 @@
         <v>539</v>
       </c>
       <c r="BQ78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BR78" s="3">
         <v>539</v>
@@ -31337,7 +31337,7 @@
         <v>539</v>
       </c>
       <c r="BT78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU78" s="3">
         <v>539</v>
@@ -31388,7 +31388,7 @@
         <v>539</v>
       </c>
       <c r="CK78" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL78" s="3">
         <v>539</v>
@@ -31896,7 +31896,7 @@
         <v>203</v>
       </c>
       <c r="C80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D80" s="3">
         <v>540</v>
@@ -31905,7 +31905,7 @@
         <v>540</v>
       </c>
       <c r="F80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G80" s="3">
         <v>540</v>
@@ -31917,49 +31917,49 @@
         <v>540</v>
       </c>
       <c r="J80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N80" s="3">
         <v>540</v>
       </c>
       <c r="O80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P80" s="3">
         <v>540</v>
       </c>
       <c r="Q80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R80" s="3">
         <v>540</v>
       </c>
       <c r="S80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W80" s="3">
         <v>540</v>
       </c>
       <c r="X80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y80" s="3">
         <v>540</v>
@@ -31971,7 +31971,7 @@
         <v>540</v>
       </c>
       <c r="AB80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC80" s="3">
         <v>540</v>
@@ -31980,7 +31980,7 @@
         <v>146</v>
       </c>
       <c r="AE80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF80" s="3">
         <v>540</v>
@@ -31992,10 +31992,10 @@
         <v>151</v>
       </c>
       <c r="AI80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK80" s="3">
         <v>540</v>
@@ -32028,25 +32028,25 @@
         <v>153</v>
       </c>
       <c r="AU80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX80" s="3">
         <v>540</v>
       </c>
       <c r="AY80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ80" s="3">
         <v>540</v>
       </c>
       <c r="BA80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB80" s="3">
         <v>540</v>
@@ -32082,7 +32082,7 @@
         <v>540</v>
       </c>
       <c r="BM80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BN80" s="3">
         <v>540</v>
@@ -32094,7 +32094,7 @@
         <v>540</v>
       </c>
       <c r="BQ80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BR80" s="3">
         <v>540</v>
@@ -32103,7 +32103,7 @@
         <v>540</v>
       </c>
       <c r="BT80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU80" s="3">
         <v>540</v>
@@ -32154,7 +32154,7 @@
         <v>540</v>
       </c>
       <c r="CK80" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL80" s="3">
         <v>540</v>
@@ -32683,49 +32683,49 @@
         <v>541</v>
       </c>
       <c r="J82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N82" s="3">
         <v>541</v>
       </c>
       <c r="O82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P82" s="3">
         <v>541</v>
       </c>
       <c r="Q82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R82" s="3">
         <v>541</v>
       </c>
       <c r="S82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W82" s="3">
         <v>541</v>
       </c>
       <c r="X82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y82" s="3">
         <v>541</v>
@@ -32737,13 +32737,13 @@
         <v>541</v>
       </c>
       <c r="AB82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC82" s="3">
         <v>541</v>
       </c>
       <c r="AD82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE82" s="3">
         <v>157</v>
@@ -32752,10 +32752,10 @@
         <v>541</v>
       </c>
       <c r="AG82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI82" s="3">
         <v>158</v>
@@ -32770,16 +32770,16 @@
         <v>541</v>
       </c>
       <c r="AM82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN82" s="3">
         <v>541</v>
       </c>
       <c r="AO82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ82" s="3">
         <v>541</v>
@@ -32788,31 +32788,31 @@
         <v>541</v>
       </c>
       <c r="AS82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AT82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AU82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX82" s="3">
         <v>541</v>
       </c>
       <c r="AY82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ82" s="3">
         <v>541</v>
       </c>
       <c r="BA82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB82" s="3">
         <v>541</v>
@@ -32848,7 +32848,7 @@
         <v>541</v>
       </c>
       <c r="BM82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BN82" s="3">
         <v>541</v>
@@ -32860,7 +32860,7 @@
         <v>541</v>
       </c>
       <c r="BQ82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BR82" s="3">
         <v>541</v>
@@ -32869,7 +32869,7 @@
         <v>541</v>
       </c>
       <c r="BT82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU82" s="3">
         <v>541</v>
@@ -32920,7 +32920,7 @@
         <v>541</v>
       </c>
       <c r="CK82" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL82" s="3">
         <v>541</v>
@@ -33428,7 +33428,7 @@
         <v>207</v>
       </c>
       <c r="C84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D84" s="3">
         <v>542</v>
@@ -33437,7 +33437,7 @@
         <v>542</v>
       </c>
       <c r="F84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G84" s="3">
         <v>542</v>
@@ -33449,43 +33449,43 @@
         <v>542</v>
       </c>
       <c r="J84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N84" s="3">
         <v>542</v>
       </c>
       <c r="O84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P84" s="3">
         <v>542</v>
       </c>
       <c r="Q84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R84" s="3">
         <v>542</v>
       </c>
       <c r="S84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U84" s="3">
         <v>161</v>
       </c>
       <c r="V84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W84" s="3">
         <v>542</v>
@@ -33509,25 +33509,25 @@
         <v>542</v>
       </c>
       <c r="AD84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF84" s="3">
         <v>542</v>
       </c>
       <c r="AG84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK84" s="3">
         <v>542</v>
@@ -33536,16 +33536,16 @@
         <v>542</v>
       </c>
       <c r="AM84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN84" s="3">
         <v>542</v>
       </c>
       <c r="AO84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ84" s="3">
         <v>542</v>
@@ -33554,31 +33554,31 @@
         <v>542</v>
       </c>
       <c r="AS84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AT84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AU84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX84" s="3">
         <v>542</v>
       </c>
       <c r="AY84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ84" s="3">
         <v>542</v>
       </c>
       <c r="BA84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB84" s="3">
         <v>542</v>
@@ -33614,7 +33614,7 @@
         <v>542</v>
       </c>
       <c r="BM84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BN84" s="3">
         <v>542</v>
@@ -33626,7 +33626,7 @@
         <v>542</v>
       </c>
       <c r="BQ84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BR84" s="3">
         <v>542</v>
@@ -33635,7 +33635,7 @@
         <v>542</v>
       </c>
       <c r="BT84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU84" s="3">
         <v>542</v>
@@ -33686,7 +33686,7 @@
         <v>542</v>
       </c>
       <c r="CK84" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL84" s="3">
         <v>542</v>
@@ -34194,7 +34194,7 @@
         <v>209</v>
       </c>
       <c r="C86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D86" s="3">
         <v>543</v>
@@ -34203,7 +34203,7 @@
         <v>543</v>
       </c>
       <c r="F86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G86" s="3">
         <v>543</v>
@@ -34215,40 +34215,40 @@
         <v>543</v>
       </c>
       <c r="J86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N86" s="3">
         <v>543</v>
       </c>
       <c r="O86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P86" s="3">
         <v>543</v>
       </c>
       <c r="Q86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R86" s="3">
         <v>543</v>
       </c>
       <c r="S86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V86" s="3">
         <v>165</v>
@@ -34257,7 +34257,7 @@
         <v>543</v>
       </c>
       <c r="X86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y86" s="3">
         <v>543</v>
@@ -34269,31 +34269,31 @@
         <v>543</v>
       </c>
       <c r="AB86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC86" s="3">
         <v>543</v>
       </c>
       <c r="AD86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF86" s="3">
         <v>543</v>
       </c>
       <c r="AG86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK86" s="3">
         <v>543</v>
@@ -34302,16 +34302,16 @@
         <v>543</v>
       </c>
       <c r="AM86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN86" s="3">
         <v>543</v>
       </c>
       <c r="AO86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ86" s="3">
         <v>543</v>
@@ -34320,31 +34320,31 @@
         <v>543</v>
       </c>
       <c r="AS86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AT86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AU86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX86" s="3">
         <v>543</v>
       </c>
       <c r="AY86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ86" s="3">
         <v>543</v>
       </c>
       <c r="BA86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB86" s="3">
         <v>543</v>
@@ -34380,7 +34380,7 @@
         <v>543</v>
       </c>
       <c r="BM86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BN86" s="3">
         <v>543</v>
@@ -34392,7 +34392,7 @@
         <v>543</v>
       </c>
       <c r="BQ86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BR86" s="3">
         <v>543</v>
@@ -34401,7 +34401,7 @@
         <v>543</v>
       </c>
       <c r="BT86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU86" s="3">
         <v>543</v>
@@ -34452,7 +34452,7 @@
         <v>543</v>
       </c>
       <c r="CK86" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL86" s="3">
         <v>543</v>
@@ -35131,7 +35131,7 @@
         <v>545</v>
       </c>
       <c r="BH88" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BI88" s="3">
         <v>545</v>
@@ -35343,7 +35343,7 @@
         <v>212</v>
       </c>
       <c r="C89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D89" s="3">
         <v>546</v>
@@ -35352,7 +35352,7 @@
         <v>181</v>
       </c>
       <c r="F89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G89" s="3">
         <v>546</v>
@@ -35364,49 +35364,49 @@
         <v>546</v>
       </c>
       <c r="J89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N89" s="3">
         <v>181</v>
       </c>
       <c r="O89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P89" s="3">
         <v>181</v>
       </c>
       <c r="Q89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R89" s="3">
         <v>546</v>
       </c>
       <c r="S89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W89" s="3">
         <v>181</v>
       </c>
       <c r="X89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y89" s="3">
         <v>546</v>
@@ -35418,31 +35418,31 @@
         <v>546</v>
       </c>
       <c r="AB89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC89" s="3">
         <v>181</v>
       </c>
       <c r="AD89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF89" s="3">
         <v>181</v>
       </c>
       <c r="AG89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK89" s="3">
         <v>181</v>
@@ -35451,16 +35451,16 @@
         <v>181</v>
       </c>
       <c r="AM89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN89" s="3">
         <v>181</v>
       </c>
       <c r="AO89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ89" s="3">
         <v>546</v>
@@ -35469,31 +35469,31 @@
         <v>546</v>
       </c>
       <c r="AS89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AT89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AU89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX89" s="3">
         <v>172</v>
       </c>
       <c r="AY89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ89" s="3">
         <v>173</v>
       </c>
       <c r="BA89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB89" s="3">
         <v>546</v>
@@ -35529,7 +35529,7 @@
         <v>546</v>
       </c>
       <c r="BM89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BN89" s="3">
         <v>546</v>
@@ -35541,7 +35541,7 @@
         <v>546</v>
       </c>
       <c r="BQ89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BR89" s="3">
         <v>546</v>
@@ -35550,7 +35550,7 @@
         <v>546</v>
       </c>
       <c r="BT89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU89" s="3">
         <v>546</v>
@@ -35601,7 +35601,7 @@
         <v>546</v>
       </c>
       <c r="CK89" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL89" s="3">
         <v>546</v>
@@ -35726,7 +35726,7 @@
         <v>213</v>
       </c>
       <c r="C90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D90" s="3">
         <v>527</v>
@@ -35735,7 +35735,7 @@
         <v>174</v>
       </c>
       <c r="F90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G90" s="3">
         <v>527</v>
@@ -35747,49 +35747,49 @@
         <v>527</v>
       </c>
       <c r="J90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N90" s="3">
         <v>174</v>
       </c>
       <c r="O90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P90" s="3">
         <v>174</v>
       </c>
       <c r="Q90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R90" s="3">
         <v>527</v>
       </c>
       <c r="S90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W90" s="3">
         <v>174</v>
       </c>
       <c r="X90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y90" s="3">
         <v>527</v>
@@ -35801,31 +35801,31 @@
         <v>527</v>
       </c>
       <c r="AB90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC90" s="3">
         <v>174</v>
       </c>
       <c r="AD90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF90" s="3">
         <v>174</v>
       </c>
       <c r="AG90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK90" s="3">
         <v>174</v>
@@ -35834,16 +35834,16 @@
         <v>174</v>
       </c>
       <c r="AM90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN90" s="3">
         <v>174</v>
       </c>
       <c r="AO90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ90" s="3">
         <v>527</v>
@@ -35852,31 +35852,31 @@
         <v>527</v>
       </c>
       <c r="AS90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AT90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AU90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AV90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX90" s="3">
         <v>527</v>
       </c>
       <c r="AY90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ90" s="3">
         <v>527</v>
       </c>
       <c r="BA90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB90" s="3">
         <v>527</v>
@@ -35912,7 +35912,7 @@
         <v>527</v>
       </c>
       <c r="BM90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BN90" s="3">
         <v>527</v>
@@ -35924,7 +35924,7 @@
         <v>527</v>
       </c>
       <c r="BQ90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BR90" s="3">
         <v>527</v>
@@ -35933,7 +35933,7 @@
         <v>527</v>
       </c>
       <c r="BT90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU90" s="3">
         <v>527</v>
@@ -35984,7 +35984,7 @@
         <v>527</v>
       </c>
       <c r="CK90" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL90" s="3">
         <v>527</v>
@@ -36109,7 +36109,7 @@
         <v>214</v>
       </c>
       <c r="C91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D91" s="3">
         <v>547</v>
@@ -36118,7 +36118,7 @@
         <v>547</v>
       </c>
       <c r="F91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G91" s="3">
         <v>547</v>
@@ -36130,49 +36130,49 @@
         <v>547</v>
       </c>
       <c r="J91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N91" s="3">
         <v>547</v>
       </c>
       <c r="O91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P91" s="3">
         <v>547</v>
       </c>
       <c r="Q91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R91" s="3">
         <v>547</v>
       </c>
       <c r="S91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W91" s="3">
         <v>547</v>
       </c>
       <c r="X91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y91" s="3">
         <v>547</v>
@@ -36184,31 +36184,31 @@
         <v>547</v>
       </c>
       <c r="AB91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC91" s="3">
         <v>547</v>
       </c>
       <c r="AD91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF91" s="3">
         <v>547</v>
       </c>
       <c r="AG91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK91" s="3">
         <v>547</v>
@@ -36217,16 +36217,16 @@
         <v>547</v>
       </c>
       <c r="AM91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN91" s="3">
         <v>547</v>
       </c>
       <c r="AO91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ91" s="3">
         <v>547</v>
@@ -36235,31 +36235,31 @@
         <v>547</v>
       </c>
       <c r="AS91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AT91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AU91" s="3">
         <v>175</v>
       </c>
       <c r="AV91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AX91" s="3">
         <v>547</v>
       </c>
       <c r="AY91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AZ91" s="3">
         <v>547</v>
       </c>
       <c r="BA91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB91" s="3">
         <v>547</v>
@@ -36295,7 +36295,7 @@
         <v>547</v>
       </c>
       <c r="BM91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BN91" s="3">
         <v>547</v>
@@ -36307,7 +36307,7 @@
         <v>547</v>
       </c>
       <c r="BQ91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BR91" s="3">
         <v>547</v>
@@ -36316,7 +36316,7 @@
         <v>547</v>
       </c>
       <c r="BT91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU91" s="3">
         <v>547</v>
@@ -36367,7 +36367,7 @@
         <v>547</v>
       </c>
       <c r="CK91" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL91" s="3">
         <v>547</v>
@@ -36642,7 +36642,7 @@
         <v>176</v>
       </c>
       <c r="BA92" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB92" s="3">
         <v>176</v>
@@ -37025,7 +37025,7 @@
         <v>510</v>
       </c>
       <c r="BA93" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BB93" s="3">
         <v>510</v>
@@ -37405,7 +37405,7 @@
         <v>548</v>
       </c>
       <c r="AZ94" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BA94" s="3">
         <v>548</v>
@@ -59831,7 +59831,7 @@
   </sheetData>
   <conditionalFormatting sqref="C2:DW94">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>182</formula>
+      <formula>183</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>499</formula>

--- a/src/main/resources/matrix-syntax.xlsx
+++ b/src/main/resources/matrix-syntax.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7755" tabRatio="322"/>
+    <workbookView windowWidth="20490" windowHeight="8835" tabRatio="322"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -673,12 +673,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -703,55 +703,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,34 +717,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -817,8 +748,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,16 +810,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,7 +861,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +909,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,31 +951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,67 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,25 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,7 +993,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,16 +1065,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,6 +1098,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1108,41 +1123,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,147 +1141,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,59 +1311,59 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
-    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
     <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
-    <cellStyle name="Coma" xfId="6" builtinId="3"/>
-    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
-    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21"/>
-    <cellStyle name="Nota" xfId="11" builtinId="10"/>
-    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
-    <cellStyle name="Título" xfId="14" builtinId="15"/>
-    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
-    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
-    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
-    <cellStyle name="Total" xfId="22" builtinId="25"/>
-    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
-    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
-    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
-    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
-    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
-    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
-    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
-    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
-    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
-    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
-    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
-    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
-    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
-    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
-    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
-    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
-    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
-    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
-    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1620,10 +1620,10 @@
   <sheetPr/>
   <dimension ref="A1:DW294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
+      <selection pane="bottomLeft" activeCell="BG30" sqref="BG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="12.75"/>
@@ -12531,7 +12531,7 @@
         <v>520</v>
       </c>
       <c r="BG29" s="3">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="BH29" s="3">
         <v>57</v>
@@ -12914,7 +12914,7 @@
         <v>521</v>
       </c>
       <c r="BG30" s="3">
-        <v>521</v>
+        <v>44</v>
       </c>
       <c r="BH30" s="3">
         <v>45</v>
